--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_dyn_gen_pf_sc_results_0_branch_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844162E-14</v>
+        <v>-5.210646841683983E-15</v>
       </c>
       <c r="O2">
-        <v>1.302657325720473E-14</v>
+        <v>2.344786519415035E-14</v>
       </c>
       <c r="P2">
-        <v>-5.210691387526131E-15</v>
+        <v>-2.084263016966454E-14</v>
       </c>
       <c r="Q2">
-        <v>1.042129368337651E-14</v>
+        <v>-2.17493615579809E-27</v>
       </c>
       <c r="R2">
-        <v>5.211118928844951E-15</v>
+        <v>-1.563146668914702E-14</v>
       </c>
       <c r="S2">
-        <v>-5.210174052366778E-15</v>
+        <v>1.563241157498491E-14</v>
       </c>
       <c r="T2">
-        <v>-2.08425873667538E-14</v>
+        <v>2.605323420843881E-14</v>
       </c>
       <c r="U2">
-        <v>5.763381835279514E-09</v>
+        <v>5.763371413987498E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763397471383003E-09</v>
+        <v>-5.763397471384665E-09</v>
       </c>
       <c r="W2">
-        <v>2.084258736675362E-14</v>
+        <v>-1.563194052506285E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763384440117033E-09</v>
+        <v>-5.763387045442121E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763392261222052E-09</v>
+        <v>5.763376629283187E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057473</v>
+        <v>0.5500000117059061</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030187</v>
+        <v>0.5500000121031774</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593778</v>
+        <v>0.5500000116595369</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121495467</v>
       </c>
       <c r="AL2">
-        <v>6.687157978068125E-13</v>
+        <v>-7.989182695631872E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995568</v>
+        <v>-179.9999999995395</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.9999999995673</v>
       </c>
       <c r="AO2">
-        <v>6.685543794859453E-13</v>
+        <v>-7.971797374602162E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952995</v>
+        <v>-179.9999999952822</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999953099</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-5.210646841688497E-15</v>
+        <v>1.042129368337523E-14</v>
       </c>
       <c r="O3">
-        <v>2.605528366046618E-15</v>
+        <v>-7.815764734917911E-15</v>
       </c>
       <c r="P3">
-        <v>5.21085202426549E-15</v>
+        <v>1.042149828634168E-14</v>
       </c>
       <c r="Q3">
-        <v>-5.210646841688194E-15</v>
+        <v>-1.563194052506067E-14</v>
       </c>
       <c r="R3">
-        <v>1.563178315465787E-14</v>
+        <v>1.563178257597656E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210804441508735E-15</v>
+        <v>-1.563209754748601E-14</v>
       </c>
       <c r="T3">
-        <v>1.042129368337669E-14</v>
+        <v>-1.447278865300304E-27</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921123804446546E-09</v>
       </c>
       <c r="V3">
-        <v>1.921129016912391E-09</v>
+        <v>1.921129016912946E-09</v>
       </c>
       <c r="W3">
-        <v>-1.563194052506519E-14</v>
+        <v>1.563194052506502E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470239E-09</v>
+        <v>1.921118593853696E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505246E-09</v>
+        <v>-1.921139438152645E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439214</v>
+        <v>0.5500000116440805</v>
       </c>
       <c r="AH3">
-        <v>0.550000012164844</v>
+        <v>0.550000012165003</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593778</v>
+        <v>0.5500000116595369</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121495467</v>
       </c>
       <c r="AL3">
-        <v>6.672567148242547E-13</v>
+        <v>-7.957070713060438E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938631</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938734</v>
+        <v>179.9999999938908</v>
       </c>
       <c r="AO3">
-        <v>6.685543794859453E-13</v>
+        <v>-7.971797374602162E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952995</v>
+        <v>-179.9999999952822</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999953099</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841688437E-15</v>
+        <v>-1.042129368337523E-14</v>
       </c>
       <c r="O4">
-        <v>2.605528366046619E-15</v>
+        <v>-7.815764734530121E-15</v>
       </c>
       <c r="P4">
-        <v>-5.210441665159434E-15</v>
+        <v>2.084279197277117E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688315E-15</v>
+        <v>1.042129368337741E-14</v>
       </c>
       <c r="R4">
-        <v>1.563178315465787E-14</v>
+        <v>1.563178257597656E-14</v>
       </c>
       <c r="S4">
-        <v>-5.21080444065384E-15</v>
+        <v>-2.605339123465634E-14</v>
       </c>
       <c r="T4">
-        <v>5.210646841688315E-15</v>
+        <v>1.449011636691119E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921123804446547E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618704E-09</v>
+        <v>1.921118595619258E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841688437E-15</v>
+        <v>1.56319405250614E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470239E-09</v>
+        <v>1.921118593853696E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921123806211558E-09</v>
+        <v>-1.921129016858957E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439215</v>
+        <v>0.5500000116440809</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648441</v>
+        <v>0.5500000121650034</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593778</v>
+        <v>0.5500000116595369</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121495467</v>
       </c>
       <c r="AL4">
-        <v>6.698909380950145E-13</v>
+        <v>-7.966597408168662E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938631</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938908</v>
       </c>
       <c r="AO4">
-        <v>6.685543794859453E-13</v>
+        <v>-7.971797374602162E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952995</v>
+        <v>-179.9999999952822</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999953099</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851868E-14</v>
+        <v>1.042129368340831E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307433401708062E-10</v>
+        <v>-7.307424991822645E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039305324358165E-09</v>
+        <v>-2.039323750786475E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340736E-14</v>
+        <v>-1.042129368340656E-14</v>
       </c>
       <c r="R2">
-        <v>7.307643226042179E-10</v>
+        <v>7.307410638598344E-10</v>
       </c>
       <c r="S2">
-        <v>2.0393070066263E-09</v>
+        <v>2.039315378850387E-09</v>
       </c>
       <c r="T2">
-        <v>-2.084258736681535E-14</v>
+        <v>1.563194052510867E-14</v>
       </c>
       <c r="U2">
-        <v>5.822487701183767E-09</v>
+        <v>5.822484583594244E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556054105598272E-09</v>
+        <v>-3.5560515637954E-09</v>
       </c>
       <c r="W2">
-        <v>2.084258736681521E-14</v>
+        <v>1.167121546085028E-27</v>
       </c>
       <c r="X2">
-        <v>-5.822478696338362E-09</v>
+        <v>-5.822491659437009E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556058292038746E-09</v>
+        <v>3.556054928081562E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635723</v>
+        <v>0.6816683458637071</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780346</v>
+        <v>0.476190715578081</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299566</v>
+        <v>0.6816683458300917</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156278279</v>
       </c>
       <c r="AL2">
-        <v>5.398845906543769E-13</v>
+        <v>-6.423649362307547E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584188</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654981</v>
       </c>
       <c r="AO2">
-        <v>5.416851833984136E-13</v>
+        <v>-6.416779029644781E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552202</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.109749164274</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1665,37 +1665,37 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.435939123712098E-10</v>
+        <v>2.435789190406114E-10</v>
       </c>
       <c r="P3">
-        <v>6.797690147977076E-10</v>
+        <v>6.797757050433575E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368340756E-14</v>
+        <v>-1.042129368340539E-14</v>
       </c>
       <c r="R3">
-        <v>-2.435729301947033E-10</v>
+        <v>-2.435803546199448E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797757050115847E-10</v>
+        <v>-6.79775705011244E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3">
-        <v>-1.940843618093031E-09</v>
+        <v>-1.940837629279922E-09</v>
       </c>
       <c r="V3">
-        <v>1.185360862223021E-09</v>
+        <v>1.18535331215258E-09</v>
       </c>
       <c r="W3">
-        <v>-9.85248901074231E-29</v>
+        <v>1.042129368340772E-14</v>
       </c>
       <c r="X3">
-        <v>1.940852622646947E-09</v>
+        <v>1.94083055314567E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185353312115794E-09</v>
+        <v>-1.185353312116144E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187514</v>
+        <v>0.6816683458188864</v>
       </c>
       <c r="AH3">
-        <v>0.476190715644363</v>
+        <v>0.4761907156444101</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299566</v>
+        <v>0.6816683458300917</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156278279</v>
       </c>
       <c r="AL3">
-        <v>5.394669696984727E-13</v>
+        <v>-6.407089641987154E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254154</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.109749163866</v>
       </c>
       <c r="AO3">
-        <v>5.416851833984136E-13</v>
+        <v>-6.416779029644781E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552202</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.109749164274</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.042129368340751E-14</v>
+        <v>-1.563194052510983E-14</v>
       </c>
       <c r="O4">
-        <v>2.435780780507137E-10</v>
+        <v>2.435913894028698E-10</v>
       </c>
       <c r="P4">
-        <v>6.797656508394707E-10</v>
+        <v>6.797706967764866E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.563194052511042E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435662022782294E-10</v>
+        <v>-2.435928249822033E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797723410533476E-10</v>
+        <v>-6.79779068969481E-10</v>
       </c>
       <c r="T4">
-        <v>-5.210646841703876E-15</v>
+        <v>1.749674164809731E-27</v>
       </c>
       <c r="U4">
-        <v>-1.94083451168901E-09</v>
+        <v>-1.940834265321686E-09</v>
       </c>
       <c r="V4">
-        <v>1.185352489997912E-09</v>
+        <v>1.185365048335927E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.210646841701528E-15</v>
       </c>
       <c r="X4">
-        <v>1.94082768192243E-09</v>
+        <v>1.940827189187433E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185344939890686E-09</v>
+        <v>-1.185361684341252E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187514</v>
+        <v>0.6816683458188867</v>
       </c>
       <c r="AH4">
-        <v>0.476190715644363</v>
+        <v>0.4761907156444103</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299566</v>
+        <v>0.6816683458300917</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156278279</v>
       </c>
       <c r="AL4">
-        <v>5.432526307510607E-13</v>
+        <v>-6.413083839823935E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541626</v>
+        <v>-164.903442254154</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.109749163866</v>
       </c>
       <c r="AO4">
-        <v>5.416851833984136E-13</v>
+        <v>-6.416779029644781E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552202</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.109749164274</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851868E-14</v>
+        <v>1.042129368340831E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307433401708062E-10</v>
+        <v>-7.307424991822645E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039305324358165E-09</v>
+        <v>-2.039323750786475E-09</v>
       </c>
       <c r="Q2">
-        <v>1.042129368340736E-14</v>
+        <v>-1.042129368340656E-14</v>
       </c>
       <c r="R2">
-        <v>7.307643226042179E-10</v>
+        <v>7.307410638598344E-10</v>
       </c>
       <c r="S2">
-        <v>2.0393070066263E-09</v>
+        <v>2.039315378850387E-09</v>
       </c>
       <c r="T2">
-        <v>-2.084258736681535E-14</v>
+        <v>1.563194052510867E-14</v>
       </c>
       <c r="U2">
-        <v>5.822487701183767E-09</v>
+        <v>5.822484583594244E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556054105598272E-09</v>
+        <v>-3.5560515637954E-09</v>
       </c>
       <c r="W2">
-        <v>2.084258736681521E-14</v>
+        <v>1.167121546085028E-27</v>
       </c>
       <c r="X2">
-        <v>-5.822478696338362E-09</v>
+        <v>-5.822491659437009E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556058292038746E-09</v>
+        <v>3.556054928081562E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635723</v>
+        <v>0.6816683458637071</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780346</v>
+        <v>0.476190715578081</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299566</v>
+        <v>0.6816683458300917</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156278279</v>
       </c>
       <c r="AL2">
-        <v>5.398845906543769E-13</v>
+        <v>-6.423649362307547E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584188</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654981</v>
       </c>
       <c r="AO2">
-        <v>5.416851833984136E-13</v>
+        <v>-6.416779029644781E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552202</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.109749164274</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2202,37 +2202,37 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.435939123712098E-10</v>
+        <v>2.435789190406114E-10</v>
       </c>
       <c r="P3">
-        <v>6.797690147977076E-10</v>
+        <v>6.797757050433575E-10</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368340756E-14</v>
+        <v>-1.042129368340539E-14</v>
       </c>
       <c r="R3">
-        <v>-2.435729301947033E-10</v>
+        <v>-2.435803546199448E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797757050115847E-10</v>
+        <v>-6.79775705011244E-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3">
-        <v>-1.940843618093031E-09</v>
+        <v>-1.940837629279922E-09</v>
       </c>
       <c r="V3">
-        <v>1.185360862223021E-09</v>
+        <v>1.18535331215258E-09</v>
       </c>
       <c r="W3">
-        <v>-9.85248901074231E-29</v>
+        <v>1.042129368340772E-14</v>
       </c>
       <c r="X3">
-        <v>1.940852622646947E-09</v>
+        <v>1.94083055314567E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185353312115794E-09</v>
+        <v>-1.185353312116144E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187514</v>
+        <v>0.6816683458188864</v>
       </c>
       <c r="AH3">
-        <v>0.476190715644363</v>
+        <v>0.4761907156444101</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299566</v>
+        <v>0.6816683458300917</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156278279</v>
       </c>
       <c r="AL3">
-        <v>5.394669696984727E-13</v>
+        <v>-6.407089641987154E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.903442254154</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.109749163866</v>
       </c>
       <c r="AO3">
-        <v>5.416851833984136E-13</v>
+        <v>-6.416779029644781E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552202</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.109749164274</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.042129368340751E-14</v>
+        <v>-1.563194052510983E-14</v>
       </c>
       <c r="O4">
-        <v>2.435780780507137E-10</v>
+        <v>2.435913894028698E-10</v>
       </c>
       <c r="P4">
-        <v>6.797656508394707E-10</v>
+        <v>6.797706967764866E-10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.563194052511042E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435662022782294E-10</v>
+        <v>-2.435928249822033E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797723410533476E-10</v>
+        <v>-6.79779068969481E-10</v>
       </c>
       <c r="T4">
-        <v>-5.210646841703876E-15</v>
+        <v>1.749674164809731E-27</v>
       </c>
       <c r="U4">
-        <v>-1.94083451168901E-09</v>
+        <v>-1.940834265321686E-09</v>
       </c>
       <c r="V4">
-        <v>1.185352489997912E-09</v>
+        <v>1.185365048335927E-09</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.210646841701528E-15</v>
       </c>
       <c r="X4">
-        <v>1.94082768192243E-09</v>
+        <v>1.940827189187433E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185344939890686E-09</v>
+        <v>-1.185361684341252E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187514</v>
+        <v>0.6816683458188867</v>
       </c>
       <c r="AH4">
-        <v>0.476190715644363</v>
+        <v>0.4761907156444103</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023811913</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299566</v>
+        <v>0.6816683458300917</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156278279</v>
       </c>
       <c r="AL4">
-        <v>5.432526307510607E-13</v>
+        <v>-6.413083839823935E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541626</v>
+        <v>-164.903442254154</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.109749163866</v>
       </c>
       <c r="AO4">
-        <v>5.416851833984136E-13</v>
+        <v>-6.416779029644781E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552288</v>
+        <v>-164.9034422552202</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.109749164274</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323364454603E-14</v>
+        <v>-3.3158661002152E-14</v>
       </c>
       <c r="O2">
-        <v>-1.184340208624354E-15</v>
+        <v>-8.289766936959979E-15</v>
       </c>
       <c r="P2">
-        <v>-1.028847817186523E-19</v>
+        <v>2.36837228525461E-15</v>
       </c>
       <c r="Q2">
-        <v>2.605323364454601E-14</v>
+        <v>2.842170943041643E-14</v>
       </c>
       <c r="R2">
-        <v>1.185019723092429E-15</v>
+        <v>1.539587381301037E-14</v>
       </c>
       <c r="S2">
-        <v>7.8242523264804E-19</v>
+        <v>2.369258827147884E-15</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867881E-14</v>
+        <v>-2.842170943042046E-14</v>
       </c>
       <c r="U2">
-        <v>4.763090068763185E-09</v>
+        <v>4.763113753519784E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914896E-09</v>
+        <v>-4.763127967865219E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785867884E-14</v>
+        <v>1.894780628694749E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763090068361623E-09</v>
+        <v>-4.763101910739295E-09</v>
       </c>
       <c r="Y2">
-        <v>4.76312323131646E-09</v>
+        <v>4.763132705218359E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000358</v>
+        <v>1.000000000000488</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998168316</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833949</v>
+        <v>0.5000000001832636</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748094</v>
+        <v>0.4999999997746782</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255482</v>
+        <v>0.5000000002254172</v>
       </c>
       <c r="AL2">
-        <v>7.214887019234373E-13</v>
+        <v>4.444491610349071E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999987619</v>
+        <v>-179.9999999987695</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.9999999987477</v>
       </c>
       <c r="AO2">
-        <v>7.712913849548391E-13</v>
+        <v>4.470278756887478E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905954</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.9999999905735</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-4.736951571735632E-15</v>
+        <v>-4.736951571737053E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183901779532914E-15</v>
+        <v>5.921525373199564E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260981E-15</v>
+        <v>7.105763877390072E-15</v>
       </c>
       <c r="Q3">
-        <v>2.368475785867785E-15</v>
+        <v>1.108746272246989E-27</v>
       </c>
       <c r="R3">
-        <v>1.183977281132659E-15</v>
+        <v>1.183977485354619E-15</v>
       </c>
       <c r="S3">
-        <v>4.736690765459941E-15</v>
+        <v>-2.368736799819998E-15</v>
       </c>
       <c r="T3">
-        <v>-4.736951571735763E-15</v>
+        <v>9.473903143472265E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587703005344683E-09</v>
+        <v>-1.587717216198973E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816773E-09</v>
+        <v>1.587712480767929E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571735729E-15</v>
+        <v>-1.421085471520895E-14</v>
       </c>
       <c r="X3">
-        <v>1.587703005389301E-09</v>
+        <v>1.587719584719378E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587707743772154E-09</v>
+        <v>-1.587707743771737E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607583</v>
+        <v>0.4999999997606271</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002394687</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748094</v>
+        <v>0.4999999997746782</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255482</v>
+        <v>0.5000000002254172</v>
       </c>
       <c r="AL3">
-        <v>7.903245241840825E-13</v>
+        <v>4.455261819215718E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878633</v>
+        <v>-179.9999999878707</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878561</v>
+        <v>179.9999999878488</v>
       </c>
       <c r="AO3">
-        <v>7.712913849548391E-13</v>
+        <v>4.470278756887478E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905954</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.9999999905735</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.736951571735759E-15</v>
+        <v>-4.736951571736684E-15</v>
       </c>
       <c r="O4">
-        <v>3.553049794407937E-15</v>
+        <v>1.18457380243406E-15</v>
       </c>
       <c r="P4">
-        <v>3.36310907692738E-19</v>
+        <v>2.368812302682282E-15</v>
       </c>
       <c r="Q4">
-        <v>6.376682487396752E-29</v>
+        <v>-2.36847578586705E-15</v>
       </c>
       <c r="R4">
-        <v>1.183977279577579E-15</v>
+        <v>1.183977485354619E-15</v>
       </c>
       <c r="S4">
-        <v>-2.6080841088268E-19</v>
+        <v>-2.368736798262526E-15</v>
       </c>
       <c r="T4">
-        <v>4.736951571735635E-15</v>
+        <v>4.73695157173595E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587712479247821E-09</v>
+        <v>-1.587707742295835E-09</v>
       </c>
       <c r="V4">
-        <v>1.587707743816772E-09</v>
+        <v>1.58771248076793E-09</v>
       </c>
       <c r="W4">
-        <v>-4.736951571735698E-15</v>
+        <v>-1.421085471520914E-14</v>
       </c>
       <c r="X4">
-        <v>1.58771247929244E-09</v>
+        <v>1.587719584719378E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587707743772153E-09</v>
+        <v>-1.587698269868589E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607584</v>
+        <v>0.4999999997606271</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002394687</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748094</v>
+        <v>0.4999999997746782</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255482</v>
+        <v>0.5000000002254172</v>
       </c>
       <c r="AL4">
-        <v>7.521037395434449E-13</v>
+        <v>4.440834295039159E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878632</v>
+        <v>-179.9999999878707</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878562</v>
+        <v>179.9999999878489</v>
       </c>
       <c r="AO4">
-        <v>7.712913849548391E-13</v>
+        <v>4.470278756887478E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905954</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.9999999905735</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323364454603E-14</v>
+        <v>-3.3158661002152E-14</v>
       </c>
       <c r="O2">
-        <v>-1.184340208624354E-15</v>
+        <v>-8.289766936959979E-15</v>
       </c>
       <c r="P2">
-        <v>-1.028847817186523E-19</v>
+        <v>2.36837228525461E-15</v>
       </c>
       <c r="Q2">
-        <v>2.605323364454601E-14</v>
+        <v>2.842170943041643E-14</v>
       </c>
       <c r="R2">
-        <v>1.185019723092429E-15</v>
+        <v>1.539587381301037E-14</v>
       </c>
       <c r="S2">
-        <v>7.8242523264804E-19</v>
+        <v>2.369258827147884E-15</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867881E-14</v>
+        <v>-2.842170943042046E-14</v>
       </c>
       <c r="U2">
-        <v>4.763090068763185E-09</v>
+        <v>4.763113753519784E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914896E-09</v>
+        <v>-4.763127967865219E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785867884E-14</v>
+        <v>1.894780628694749E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763090068361623E-09</v>
+        <v>-4.763101910739295E-09</v>
       </c>
       <c r="Y2">
-        <v>4.76312323131646E-09</v>
+        <v>4.763132705218359E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000358</v>
+        <v>1.000000000000488</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998168316</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833949</v>
+        <v>0.5000000001832636</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748094</v>
+        <v>0.4999999997746782</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255482</v>
+        <v>0.5000000002254172</v>
       </c>
       <c r="AL2">
-        <v>7.214887019234373E-13</v>
+        <v>4.444491610349071E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999987619</v>
+        <v>-179.9999999987695</v>
       </c>
       <c r="AN2">
-        <v>179.9999999987551</v>
+        <v>179.9999999987477</v>
       </c>
       <c r="AO2">
-        <v>7.712913849548391E-13</v>
+        <v>4.470278756887478E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905954</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.9999999905735</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-4.736951571735632E-15</v>
+        <v>-4.736951571737053E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183901779532914E-15</v>
+        <v>5.921525373199564E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260981E-15</v>
+        <v>7.105763877390072E-15</v>
       </c>
       <c r="Q3">
-        <v>2.368475785867785E-15</v>
+        <v>1.108746272246989E-27</v>
       </c>
       <c r="R3">
-        <v>1.183977281132659E-15</v>
+        <v>1.183977485354619E-15</v>
       </c>
       <c r="S3">
-        <v>4.736690765459941E-15</v>
+        <v>-2.368736799819998E-15</v>
       </c>
       <c r="T3">
-        <v>-4.736951571735763E-15</v>
+        <v>9.473903143472265E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587703005344683E-09</v>
+        <v>-1.587717216198973E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816773E-09</v>
+        <v>1.587712480767929E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571735729E-15</v>
+        <v>-1.421085471520895E-14</v>
       </c>
       <c r="X3">
-        <v>1.587703005389301E-09</v>
+        <v>1.587719584719378E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587707743772154E-09</v>
+        <v>-1.587707743771737E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607583</v>
+        <v>0.4999999997606271</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002394687</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748094</v>
+        <v>0.4999999997746782</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255482</v>
+        <v>0.5000000002254172</v>
       </c>
       <c r="AL3">
-        <v>7.903245241840825E-13</v>
+        <v>4.455261819215718E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878633</v>
+        <v>-179.9999999878707</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878561</v>
+        <v>179.9999999878488</v>
       </c>
       <c r="AO3">
-        <v>7.712913849548391E-13</v>
+        <v>4.470278756887478E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905954</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.9999999905735</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-4.736951571735759E-15</v>
+        <v>-4.736951571736684E-15</v>
       </c>
       <c r="O4">
-        <v>3.553049794407937E-15</v>
+        <v>1.18457380243406E-15</v>
       </c>
       <c r="P4">
-        <v>3.36310907692738E-19</v>
+        <v>2.368812302682282E-15</v>
       </c>
       <c r="Q4">
-        <v>6.376682487396752E-29</v>
+        <v>-2.36847578586705E-15</v>
       </c>
       <c r="R4">
-        <v>1.183977279577579E-15</v>
+        <v>1.183977485354619E-15</v>
       </c>
       <c r="S4">
-        <v>-2.6080841088268E-19</v>
+        <v>-2.368736798262526E-15</v>
       </c>
       <c r="T4">
-        <v>4.736951571735635E-15</v>
+        <v>4.73695157173595E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587712479247821E-09</v>
+        <v>-1.587707742295835E-09</v>
       </c>
       <c r="V4">
-        <v>1.587707743816772E-09</v>
+        <v>1.58771248076793E-09</v>
       </c>
       <c r="W4">
-        <v>-4.736951571735698E-15</v>
+        <v>-1.421085471520914E-14</v>
       </c>
       <c r="X4">
-        <v>1.58771247929244E-09</v>
+        <v>1.587719584719378E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587707743772153E-09</v>
+        <v>-1.587698269868589E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607584</v>
+        <v>0.4999999997606271</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002394687</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000358</v>
+        <v>1.000000000000489</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748094</v>
+        <v>0.4999999997746782</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255482</v>
+        <v>0.5000000002254172</v>
       </c>
       <c r="AL4">
-        <v>7.521037395434449E-13</v>
+        <v>4.440834295039159E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878632</v>
+        <v>-179.9999999878707</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878562</v>
+        <v>179.9999999878489</v>
       </c>
       <c r="AO4">
-        <v>7.712913849548391E-13</v>
+        <v>4.470278756887478E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905954</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.9999999905735</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.657933050116517E-14</v>
+        <v>-1.657933050116752E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559586648320338E-10</v>
+        <v>-5.559618031067977E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551455382895225E-09</v>
+        <v>-1.551461777603211E-09</v>
       </c>
       <c r="Q2">
-        <v>1.894780628704594E-14</v>
+        <v>1.894780628704857E-14</v>
       </c>
       <c r="R2">
-        <v>5.559604050011856E-10</v>
+        <v>5.55964634924427E-10</v>
       </c>
       <c r="S2">
-        <v>1.551458687573722E-09</v>
+        <v>1.551461778082946E-09</v>
       </c>
       <c r="T2">
-        <v>-2.368475785880914E-15</v>
+        <v>-1.65793305011674E-14</v>
       </c>
       <c r="U2">
-        <v>4.833121180652544E-09</v>
+        <v>4.833121897027877E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108895082314611E-09</v>
+        <v>-3.10888847391602E-09</v>
       </c>
       <c r="W2">
-        <v>2.102502938363292E-28</v>
+        <v>1.184237892940526E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833122237849795E-09</v>
+        <v>-4.833115279091015E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889827995222E-09</v>
+        <v>3.108888474199516E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005802</v>
+        <v>1.000000000005938</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891394</v>
+        <v>0.6078088903890095</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140596</v>
+        <v>0.4340870104139257</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608019</v>
+        <v>0.6078088903606724</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725137</v>
+        <v>0.4340870104723798</v>
       </c>
       <c r="AL2">
-        <v>5.939178426587425E-13</v>
+        <v>-2.190599028115791E-13</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302449</v>
+        <v>-166.2935793302406</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346806</v>
+        <v>160.6235536346763</v>
       </c>
       <c r="AO2">
-        <v>6.357704050649078E-13</v>
+        <v>-2.090457490573084E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242462</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296853</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.105427357642281E-15</v>
+        <v>-7.105427357643159E-15</v>
       </c>
       <c r="O3">
-        <v>1.853185999886793E-10</v>
+        <v>1.8532514930668E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285721E-10</v>
+        <v>5.171536849644509E-10</v>
       </c>
       <c r="Q3">
-        <v>-4.736951571761538E-15</v>
+        <v>4.736951571762089E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853196574161237E-10</v>
+        <v>-1.853223862509279E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171490162951128E-10</v>
+        <v>-5.171523204937872E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761404E-15</v>
+        <v>9.47390314352429E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611044577790869E-09</v>
+        <v>-1.611059280017791E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245035E-09</v>
+        <v>1.036307868016152E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761433E-15</v>
+        <v>-1.184237892940535E-14</v>
       </c>
       <c r="X3">
-        <v>1.611042838132941E-09</v>
+        <v>1.611054026813282E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.0363007910681E-09</v>
+        <v>-1.036303988421856E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005802</v>
+        <v>1.000000000005938</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513561</v>
+        <v>0.607808890351227</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919987</v>
+        <v>0.4340870104918647</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608019</v>
+        <v>0.6078088903606724</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725137</v>
+        <v>0.4340870104723798</v>
       </c>
       <c r="AL3">
-        <v>6.52433387412512E-13</v>
+        <v>-2.272321634895578E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222525</v>
+        <v>-166.2935793222481</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280258</v>
+        <v>160.6235536280216</v>
       </c>
       <c r="AO3">
-        <v>6.357704050649078E-13</v>
+        <v>-2.090457490573084E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242462</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296853</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.560673521267572E-29</v>
+        <v>-7.105427357643178E-15</v>
       </c>
       <c r="O4">
-        <v>1.853241259935758E-10</v>
+        <v>1.853168261316113E-10</v>
       </c>
       <c r="P4">
-        <v>5.171562001099681E-10</v>
+        <v>5.171534712751643E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880795E-15</v>
+        <v>2.368475785881023E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853223862508437E-10</v>
+        <v>-1.853167919105791E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171528958579075E-10</v>
+        <v>-5.17153471221862E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880742E-15</v>
+        <v>4.736951571762162E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611055084262887E-09</v>
+        <v>-1.611049455754454E-09</v>
       </c>
       <c r="V4">
-        <v>1.036302624036355E-09</v>
+        <v>1.036294864910407E-09</v>
       </c>
       <c r="W4">
-        <v>-4.736951571761459E-15</v>
+        <v>-1.184237892940534E-14</v>
       </c>
       <c r="X4">
-        <v>1.611054026813639E-09</v>
+        <v>1.611055391230641E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036294864878907E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513563</v>
+        <v>0.6078088903512269</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104918645</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608019</v>
+        <v>0.6078088903606724</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725137</v>
+        <v>0.4340870104723798</v>
       </c>
       <c r="AL4">
-        <v>6.194523345104462E-13</v>
+        <v>-2.375467475509759E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222525</v>
+        <v>-166.2935793222481</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280217</v>
       </c>
       <c r="AO4">
-        <v>6.357704050649078E-13</v>
+        <v>-2.090457490573084E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242462</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296853</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.657933050116517E-14</v>
+        <v>-1.657933050116752E-14</v>
       </c>
       <c r="O2">
-        <v>-5.559586648320338E-10</v>
+        <v>-5.559618031067977E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551455382895225E-09</v>
+        <v>-1.551461777603211E-09</v>
       </c>
       <c r="Q2">
-        <v>1.894780628704594E-14</v>
+        <v>1.894780628704857E-14</v>
       </c>
       <c r="R2">
-        <v>5.559604050011856E-10</v>
+        <v>5.55964634924427E-10</v>
       </c>
       <c r="S2">
-        <v>1.551458687573722E-09</v>
+        <v>1.551461778082946E-09</v>
       </c>
       <c r="T2">
-        <v>-2.368475785880914E-15</v>
+        <v>-1.65793305011674E-14</v>
       </c>
       <c r="U2">
-        <v>4.833121180652544E-09</v>
+        <v>4.833121897027877E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108895082314611E-09</v>
+        <v>-3.10888847391602E-09</v>
       </c>
       <c r="W2">
-        <v>2.102502938363292E-28</v>
+        <v>1.184237892940526E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833122237849795E-09</v>
+        <v>-4.833115279091015E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889827995222E-09</v>
+        <v>3.108888474199516E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005802</v>
+        <v>1.000000000005938</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891394</v>
+        <v>0.6078088903890095</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140596</v>
+        <v>0.4340870104139257</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608019</v>
+        <v>0.6078088903606724</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725137</v>
+        <v>0.4340870104723798</v>
       </c>
       <c r="AL2">
-        <v>5.939178426587425E-13</v>
+        <v>-2.190599028115791E-13</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302449</v>
+        <v>-166.2935793302406</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346806</v>
+        <v>160.6235536346763</v>
       </c>
       <c r="AO2">
-        <v>6.357704050649078E-13</v>
+        <v>-2.090457490573084E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242462</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296853</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.105427357642281E-15</v>
+        <v>-7.105427357643159E-15</v>
       </c>
       <c r="O3">
-        <v>1.853185999886793E-10</v>
+        <v>1.8532514930668E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285721E-10</v>
+        <v>5.171536849644509E-10</v>
       </c>
       <c r="Q3">
-        <v>-4.736951571761538E-15</v>
+        <v>4.736951571762089E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853196574161237E-10</v>
+        <v>-1.853223862509279E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171490162951128E-10</v>
+        <v>-5.171523204937872E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761404E-15</v>
+        <v>9.47390314352429E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611044577790869E-09</v>
+        <v>-1.611059280017791E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245035E-09</v>
+        <v>1.036307868016152E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761433E-15</v>
+        <v>-1.184237892940535E-14</v>
       </c>
       <c r="X3">
-        <v>1.611042838132941E-09</v>
+        <v>1.611054026813282E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.0363007910681E-09</v>
+        <v>-1.036303988421856E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005802</v>
+        <v>1.000000000005938</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513561</v>
+        <v>0.607808890351227</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919987</v>
+        <v>0.4340870104918647</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608019</v>
+        <v>0.6078088903606724</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725137</v>
+        <v>0.4340870104723798</v>
       </c>
       <c r="AL3">
-        <v>6.52433387412512E-13</v>
+        <v>-2.272321634895578E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222525</v>
+        <v>-166.2935793222481</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280258</v>
+        <v>160.6235536280216</v>
       </c>
       <c r="AO3">
-        <v>6.357704050649078E-13</v>
+        <v>-2.090457490573084E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242462</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296853</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.560673521267572E-29</v>
+        <v>-7.105427357643178E-15</v>
       </c>
       <c r="O4">
-        <v>1.853241259935758E-10</v>
+        <v>1.853168261316113E-10</v>
       </c>
       <c r="P4">
-        <v>5.171562001099681E-10</v>
+        <v>5.171534712751643E-10</v>
       </c>
       <c r="Q4">
-        <v>2.368475785880795E-15</v>
+        <v>2.368475785881023E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853223862508437E-10</v>
+        <v>-1.853167919105791E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171528958579075E-10</v>
+        <v>-5.17153471221862E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880742E-15</v>
+        <v>4.736951571762162E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611055084262887E-09</v>
+        <v>-1.611049455754454E-09</v>
       </c>
       <c r="V4">
-        <v>1.036302624036355E-09</v>
+        <v>1.036294864910407E-09</v>
       </c>
       <c r="W4">
-        <v>-4.736951571761459E-15</v>
+        <v>-1.184237892940534E-14</v>
       </c>
       <c r="X4">
-        <v>1.611054026813639E-09</v>
+        <v>1.611055391230641E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036294864878907E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513563</v>
+        <v>0.6078088903512269</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104918645</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005802</v>
+        <v>1.000000000005939</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608019</v>
+        <v>0.6078088903606724</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725137</v>
+        <v>0.4340870104723798</v>
       </c>
       <c r="AL4">
-        <v>6.194523345104462E-13</v>
+        <v>-2.375467475509759E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222525</v>
+        <v>-166.2935793222481</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280217</v>
       </c>
       <c r="AO4">
-        <v>6.357704050649078E-13</v>
+        <v>-2.090457490573084E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242462</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296853</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.95778503446686E-09</v>
+        <v>-2.957775481612508E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394873676017914E-10</v>
+        <v>-7.394432424553489E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394024507813784E-10</v>
+        <v>-7.39461812059549E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957787640044064E-09</v>
+        <v>2.957771139660579E-09</v>
       </c>
       <c r="R2">
-        <v>7.394835064435531E-10</v>
+        <v>7.394450645744917E-10</v>
       </c>
       <c r="S2">
-        <v>7.394024508448199E-10</v>
+        <v>7.394572995704586E-10</v>
       </c>
       <c r="T2">
-        <v>7.815113005899412E-15</v>
+        <v>4.341348800177782E-15</v>
       </c>
       <c r="U2">
-        <v>-3.84224591314901E-09</v>
+        <v>-3.84227195385317E-09</v>
       </c>
       <c r="V2">
-        <v>3.842242366312636E-09</v>
+        <v>3.842259020333986E-09</v>
       </c>
       <c r="W2">
-        <v>-4.341060503427914E-15</v>
+        <v>6.948673964748389E-15</v>
       </c>
       <c r="X2">
-        <v>3.842250166076537E-09</v>
+        <v>3.842269263428316E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842242366240652E-09</v>
+        <v>-3.842259888703142E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,40 +4810,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541445</v>
+        <v>0.3666666746539206</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760906</v>
+        <v>0.9701088351761762</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717376</v>
+        <v>0.9701088350717371</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856051</v>
+        <v>0.3666666746853805</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965894</v>
+        <v>0.9701088351966746</v>
       </c>
       <c r="AL2">
         <v>0.970108835057184</v>
       </c>
       <c r="AM2">
-        <v>1.660609172952036E-08</v>
+        <v>1.659925129582648E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492837</v>
+        <v>-100.8933946492962</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504844</v>
       </c>
       <c r="AP2">
-        <v>2.218383298411504E-08</v>
+        <v>2.21770213723636E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500093</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515959</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859277659743199E-10</v>
+        <v>9.859303712971364E-10</v>
       </c>
       <c r="O3">
-        <v>2.464906409332199E-10</v>
+        <v>2.464733272276519E-10</v>
       </c>
       <c r="P3">
-        <v>2.464818329384572E-10</v>
+        <v>2.464719393925501E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606227023E-10</v>
+        <v>-9.859277659455189E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464936337067106E-10</v>
+        <v>-2.464715051649052E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464818329314079E-10</v>
+        <v>-2.46476451938036E-10</v>
       </c>
       <c r="T3">
-        <v>-6.078674257367484E-15</v>
+        <v>-2.604909811375552E-15</v>
       </c>
       <c r="U3">
-        <v>1.280754308222387E-09</v>
+        <v>1.280749450799499E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280757173035938E-09</v>
+        <v>-1.280754397365625E-09</v>
       </c>
       <c r="W3">
-        <v>9.552470813832573E-15</v>
+        <v>6.947147508599977E-15</v>
       </c>
       <c r="X3">
-        <v>-1.28074554280631E-09</v>
+        <v>-1.280752141288339E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280757173043936E-09</v>
+        <v>1.280753528932483E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,40 +4941,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960917</v>
+        <v>0.3666666746958672</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034222</v>
+        <v>0.9701088352035072</v>
       </c>
       <c r="AI3">
         <v>0.970108835052333</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856051</v>
+        <v>0.3666666746853805</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965894</v>
+        <v>0.9701088351966746</v>
       </c>
       <c r="AL3">
         <v>0.970108835057184</v>
       </c>
       <c r="AM3">
-        <v>2.404310225756468E-08</v>
+        <v>2.403629652592517E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.893394650247</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519664</v>
       </c>
       <c r="AP3">
-        <v>2.218383298411504E-08</v>
+        <v>2.21770213723636E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500093</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515959</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859277659743172E-10</v>
+        <v>9.85926897532574E-10</v>
       </c>
       <c r="O4">
-        <v>2.464734591642174E-10</v>
+        <v>2.464823523327234E-10</v>
       </c>
       <c r="P4">
-        <v>2.464629142871764E-10</v>
+        <v>2.464809644976201E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859251606226996E-10</v>
+        <v>-9.859277659455189E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464863454839201E-10</v>
+        <v>-2.464822671522575E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464620458389869E-10</v>
+        <v>-2.46485477043106E-10</v>
       </c>
       <c r="T4">
-        <v>8.688548662145743E-16</v>
+        <v>-2.604909812925302E-15</v>
       </c>
       <c r="U4">
-        <v>1.280762294539484E-09</v>
+        <v>1.280747713917218E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280756134247965E-09</v>
+        <v>-1.280752660483345E-09</v>
       </c>
       <c r="W4">
-        <v>2.604941690014747E-15</v>
+        <v>6.947147508599977E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280756304793662E-09</v>
+        <v>-1.280759429511129E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280751621703428E-09</v>
+        <v>1.280751792050202E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,40 +5072,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960918</v>
+        <v>0.3666666746958671</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034223</v>
+        <v>0.9701088352035073</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523327</v>
+        <v>0.970108835052333</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856051</v>
+        <v>0.3666666746853805</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965894</v>
+        <v>0.9701088351966746</v>
       </c>
       <c r="AL4">
         <v>0.970108835057184</v>
       </c>
       <c r="AM4">
-        <v>2.404307700913573E-08</v>
+        <v>2.403629115259477E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.893394650247</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519664</v>
       </c>
       <c r="AP4">
-        <v>2.218383298411504E-08</v>
+        <v>2.21770213723636E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500093</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515959</v>
       </c>
     </row>
   </sheetData>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.95778503446686E-09</v>
+        <v>-2.957775481612508E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394873676017914E-10</v>
+        <v>-7.394432424553489E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394024507813784E-10</v>
+        <v>-7.39461812059549E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957787640044064E-09</v>
+        <v>2.957771139660579E-09</v>
       </c>
       <c r="R2">
-        <v>7.394835064435531E-10</v>
+        <v>7.394450645744917E-10</v>
       </c>
       <c r="S2">
-        <v>7.394024508448199E-10</v>
+        <v>7.394572995704586E-10</v>
       </c>
       <c r="T2">
-        <v>7.815113005899412E-15</v>
+        <v>4.341348800177782E-15</v>
       </c>
       <c r="U2">
-        <v>-3.84224591314901E-09</v>
+        <v>-3.84227195385317E-09</v>
       </c>
       <c r="V2">
-        <v>3.842242366312636E-09</v>
+        <v>3.842259020333986E-09</v>
       </c>
       <c r="W2">
-        <v>-4.341060503427914E-15</v>
+        <v>6.948673964748389E-15</v>
       </c>
       <c r="X2">
-        <v>3.842250166076537E-09</v>
+        <v>3.842269263428316E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.842242366240652E-09</v>
+        <v>-3.842259888703142E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,40 +5350,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541445</v>
+        <v>0.3666666746539206</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760906</v>
+        <v>0.9701088351761762</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717376</v>
+        <v>0.9701088350717371</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856051</v>
+        <v>0.3666666746853805</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965894</v>
+        <v>0.9701088351966746</v>
       </c>
       <c r="AL2">
         <v>0.970108835057184</v>
       </c>
       <c r="AM2">
-        <v>1.660609172952036E-08</v>
+        <v>1.659925129582648E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492837</v>
+        <v>-100.8933946492962</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504844</v>
       </c>
       <c r="AP2">
-        <v>2.218383298411504E-08</v>
+        <v>2.21770213723636E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500093</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515959</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859277659743199E-10</v>
+        <v>9.859303712971364E-10</v>
       </c>
       <c r="O3">
-        <v>2.464906409332199E-10</v>
+        <v>2.464733272276519E-10</v>
       </c>
       <c r="P3">
-        <v>2.464818329384572E-10</v>
+        <v>2.464719393925501E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859251606227023E-10</v>
+        <v>-9.859277659455189E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464936337067106E-10</v>
+        <v>-2.464715051649052E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464818329314079E-10</v>
+        <v>-2.46476451938036E-10</v>
       </c>
       <c r="T3">
-        <v>-6.078674257367484E-15</v>
+        <v>-2.604909811375552E-15</v>
       </c>
       <c r="U3">
-        <v>1.280754308222387E-09</v>
+        <v>1.280749450799499E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280757173035938E-09</v>
+        <v>-1.280754397365625E-09</v>
       </c>
       <c r="W3">
-        <v>9.552470813832573E-15</v>
+        <v>6.947147508599977E-15</v>
       </c>
       <c r="X3">
-        <v>-1.28074554280631E-09</v>
+        <v>-1.280752141288339E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280757173043936E-09</v>
+        <v>1.280753528932483E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,40 +5481,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960917</v>
+        <v>0.3666666746958672</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034222</v>
+        <v>0.9701088352035072</v>
       </c>
       <c r="AI3">
         <v>0.970108835052333</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856051</v>
+        <v>0.3666666746853805</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965894</v>
+        <v>0.9701088351966746</v>
       </c>
       <c r="AL3">
         <v>0.970108835057184</v>
       </c>
       <c r="AM3">
-        <v>2.404310225756468E-08</v>
+        <v>2.403629652592517E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946502344</v>
+        <v>-100.893394650247</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519664</v>
       </c>
       <c r="AP3">
-        <v>2.218383298411504E-08</v>
+        <v>2.21770213723636E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500093</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515959</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859277659743172E-10</v>
+        <v>9.85926897532574E-10</v>
       </c>
       <c r="O4">
-        <v>2.464734591642174E-10</v>
+        <v>2.464823523327234E-10</v>
       </c>
       <c r="P4">
-        <v>2.464629142871764E-10</v>
+        <v>2.464809644976201E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859251606226996E-10</v>
+        <v>-9.859277659455189E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464863454839201E-10</v>
+        <v>-2.464822671522575E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464620458389869E-10</v>
+        <v>-2.46485477043106E-10</v>
       </c>
       <c r="T4">
-        <v>8.688548662145743E-16</v>
+        <v>-2.604909812925302E-15</v>
       </c>
       <c r="U4">
-        <v>1.280762294539484E-09</v>
+        <v>1.280747713917218E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280756134247965E-09</v>
+        <v>-1.280752660483345E-09</v>
       </c>
       <c r="W4">
-        <v>2.604941690014747E-15</v>
+        <v>6.947147508599977E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280756304793662E-09</v>
+        <v>-1.280759429511129E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280751621703428E-09</v>
+        <v>1.280751792050202E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,40 +5612,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960918</v>
+        <v>0.3666666746958671</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034223</v>
+        <v>0.9701088352035073</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523327</v>
+        <v>0.970108835052333</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856051</v>
+        <v>0.3666666746853805</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965894</v>
+        <v>0.9701088351966746</v>
       </c>
       <c r="AL4">
         <v>0.970108835057184</v>
       </c>
       <c r="AM4">
-        <v>2.404307700913573E-08</v>
+        <v>2.403629115259477E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946502344</v>
+        <v>-100.893394650247</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519664</v>
       </c>
       <c r="AP4">
-        <v>2.218383298411504E-08</v>
+        <v>2.21770213723636E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946500093</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515959</v>
       </c>
     </row>
   </sheetData>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138994553475884E-09</v>
+        <v>-3.138989233379308E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398953595788984E-09</v>
+        <v>-1.398917980986452E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705373108473181E-10</v>
+        <v>-1.705785137738473E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138994553596471E-09</v>
+        <v>3.138992313771082E-09</v>
       </c>
       <c r="R2">
-        <v>1.398950103053436E-09</v>
+        <v>1.398931744489976E-09</v>
       </c>
       <c r="S2">
-        <v>1.705344294728009E-10</v>
+        <v>1.705775594112318E-10</v>
       </c>
       <c r="T2">
-        <v>1.418392481414358E-09</v>
+        <v>1.418392950384877E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221722625578285E-09</v>
+        <v>-2.221739466638548E-09</v>
       </c>
       <c r="V2">
-        <v>2.930923745442505E-09</v>
+        <v>2.930921800204246E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418392481277544E-09</v>
+        <v>-1.418380843097072E-09</v>
       </c>
       <c r="X2">
-        <v>2.22172972013401E-09</v>
+        <v>2.221734784390176E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.93091416502793E-09</v>
+        <v>-2.930927310711393E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,40 +5890,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695828</v>
+        <v>0.6194744497694542</v>
       </c>
       <c r="AH2">
-        <v>0.94433477094435</v>
+        <v>0.944334770944418</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694155</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792136</v>
+        <v>0.6194744497790845</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605383</v>
+        <v>0.9443347709606059</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682503</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850472</v>
+        <v>-10.90775017850942</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042217</v>
       </c>
       <c r="AO2">
-        <v>106.7392371168768</v>
+        <v>106.7392371168843</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560496</v>
+        <v>-10.90775017560964</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043807</v>
       </c>
       <c r="AR2">
-        <v>106.7392371175029</v>
+        <v>106.7392371175104</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046327305822472E-09</v>
+        <v>1.046340609828548E-09</v>
       </c>
       <c r="O3">
-        <v>4.663004453827403E-10</v>
+        <v>4.663007401643706E-10</v>
       </c>
       <c r="P3">
-        <v>5.685104072013274E-11</v>
+        <v>5.686015301744007E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046333068618399E-09</v>
+        <v>-1.04633752954396E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663138486771858E-10</v>
+        <v>-4.662968872197457E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685104071678331E-11</v>
+        <v>-5.685631721666686E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727986743133545E-10</v>
+        <v>-4.727877902747357E-10</v>
       </c>
       <c r="U3">
-        <v>7.405785597123263E-10</v>
+        <v>7.405690093558003E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769747378266971E-10</v>
+        <v>-9.769876676949282E-10</v>
       </c>
       <c r="W3">
-        <v>4.727997848791561E-10</v>
+        <v>4.727998974409272E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405728186972284E-10</v>
+        <v>-7.405750451447992E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769747378304976E-10</v>
+        <v>9.76983597859709E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,40 +6021,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824235</v>
+        <v>0.6194744497822947</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659343</v>
+        <v>0.9443347709660019</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678604</v>
+        <v>1.055985897678619</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792136</v>
+        <v>0.6194744497790845</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605383</v>
+        <v>0.9443347709606059</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682503</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463837</v>
+        <v>-10.90775017464304</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044337</v>
       </c>
       <c r="AO3">
-        <v>106.7392371177116</v>
+        <v>106.7392371177191</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560496</v>
+        <v>-10.90775017560964</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043807</v>
       </c>
       <c r="AR3">
-        <v>106.7392371175029</v>
+        <v>106.7392371175104</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046321543013147E-09</v>
+        <v>1.046327973659299E-09</v>
       </c>
       <c r="O4">
-        <v>4.663032395952947E-10</v>
+        <v>4.663120913988039E-10</v>
       </c>
       <c r="P4">
-        <v>5.685104072013277E-11</v>
+        <v>5.685248142259261E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046327305809074E-09</v>
+        <v>-1.046331766734636E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663180835920711E-10</v>
+        <v>-4.663040035392933E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685248141911442E-11</v>
+        <v>-5.68534358120046E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727975637627551E-10</v>
+        <v>-4.72791331982861E-10</v>
       </c>
       <c r="U4">
-        <v>7.405728840951099E-10</v>
+        <v>7.405745977809088E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769747378266969E-10</v>
+        <v>-9.769795280168889E-10</v>
       </c>
       <c r="W4">
-        <v>4.727986743285565E-10</v>
+        <v>4.727987868903276E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405713779948972E-10</v>
+        <v>-7.405820742722389E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769795280206826E-10</v>
+        <v>9.769740174793386E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,40 +6152,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824235</v>
+        <v>0.6194744497822945</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659343</v>
+        <v>0.9443347709660019</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678603</v>
+        <v>1.055985897678619</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792136</v>
+        <v>0.6194744497790845</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605383</v>
+        <v>0.9443347709606059</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682503</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463837</v>
+        <v>-10.90775017464305</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044337</v>
       </c>
       <c r="AO4">
-        <v>106.7392371177116</v>
+        <v>106.7392371177191</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560496</v>
+        <v>-10.90775017560964</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043807</v>
       </c>
       <c r="AR4">
-        <v>106.7392371175029</v>
+        <v>106.7392371175104</v>
       </c>
     </row>
   </sheetData>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138994553475884E-09</v>
+        <v>-3.138989233379308E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398953595788984E-09</v>
+        <v>-1.398917980986452E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705373108473181E-10</v>
+        <v>-1.705785137738473E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138994553596471E-09</v>
+        <v>3.138992313771082E-09</v>
       </c>
       <c r="R2">
-        <v>1.398950103053436E-09</v>
+        <v>1.398931744489976E-09</v>
       </c>
       <c r="S2">
-        <v>1.705344294728009E-10</v>
+        <v>1.705775594112318E-10</v>
       </c>
       <c r="T2">
-        <v>1.418392481414358E-09</v>
+        <v>1.418392950384877E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221722625578285E-09</v>
+        <v>-2.221739466638548E-09</v>
       </c>
       <c r="V2">
-        <v>2.930923745442505E-09</v>
+        <v>2.930921800204246E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418392481277544E-09</v>
+        <v>-1.418380843097072E-09</v>
       </c>
       <c r="X2">
-        <v>2.22172972013401E-09</v>
+        <v>2.221734784390176E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.93091416502793E-09</v>
+        <v>-2.930927310711393E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,40 +6655,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695828</v>
+        <v>0.6194744497694542</v>
       </c>
       <c r="AH2">
-        <v>0.94433477094435</v>
+        <v>0.944334770944418</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694155</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792136</v>
+        <v>0.6194744497790845</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605383</v>
+        <v>0.9443347709606059</v>
       </c>
       <c r="AL2">
-        <v>1.055985897682488</v>
+        <v>1.055985897682503</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850472</v>
+        <v>-10.90775017850942</v>
       </c>
       <c r="AN2">
-        <v>-108.7881138042144</v>
+        <v>-108.7881138042217</v>
       </c>
       <c r="AO2">
-        <v>106.7392371168768</v>
+        <v>106.7392371168843</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560496</v>
+        <v>-10.90775017560964</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043807</v>
       </c>
       <c r="AR2">
-        <v>106.7392371175029</v>
+        <v>106.7392371175104</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046327305822472E-09</v>
+        <v>1.046340609828548E-09</v>
       </c>
       <c r="O3">
-        <v>4.663004453827403E-10</v>
+        <v>4.663007401643706E-10</v>
       </c>
       <c r="P3">
-        <v>5.685104072013274E-11</v>
+        <v>5.686015301744007E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046333068618399E-09</v>
+        <v>-1.04633752954396E-09</v>
       </c>
       <c r="R3">
-        <v>-4.663138486771858E-10</v>
+        <v>-4.662968872197457E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685104071678331E-11</v>
+        <v>-5.685631721666686E-11</v>
       </c>
       <c r="T3">
-        <v>-4.727986743133545E-10</v>
+        <v>-4.727877902747357E-10</v>
       </c>
       <c r="U3">
-        <v>7.405785597123263E-10</v>
+        <v>7.405690093558003E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769747378266971E-10</v>
+        <v>-9.769876676949282E-10</v>
       </c>
       <c r="W3">
-        <v>4.727997848791561E-10</v>
+        <v>4.727998974409272E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405728186972284E-10</v>
+        <v>-7.405750451447992E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769747378304976E-10</v>
+        <v>9.76983597859709E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,40 +6786,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824235</v>
+        <v>0.6194744497822947</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659343</v>
+        <v>0.9443347709660019</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678604</v>
+        <v>1.055985897678619</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792136</v>
+        <v>0.6194744497790845</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605383</v>
+        <v>0.9443347709606059</v>
       </c>
       <c r="AL3">
-        <v>1.055985897682488</v>
+        <v>1.055985897682503</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463837</v>
+        <v>-10.90775017464304</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044337</v>
       </c>
       <c r="AO3">
-        <v>106.7392371177116</v>
+        <v>106.7392371177191</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560496</v>
+        <v>-10.90775017560964</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043807</v>
       </c>
       <c r="AR3">
-        <v>106.7392371175029</v>
+        <v>106.7392371175104</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046321543013147E-09</v>
+        <v>1.046327973659299E-09</v>
       </c>
       <c r="O4">
-        <v>4.663032395952947E-10</v>
+        <v>4.663120913988039E-10</v>
       </c>
       <c r="P4">
-        <v>5.685104072013277E-11</v>
+        <v>5.685248142259261E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046327305809074E-09</v>
+        <v>-1.046331766734636E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663180835920711E-10</v>
+        <v>-4.663040035392933E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685248141911442E-11</v>
+        <v>-5.68534358120046E-11</v>
       </c>
       <c r="T4">
-        <v>-4.727975637627551E-10</v>
+        <v>-4.72791331982861E-10</v>
       </c>
       <c r="U4">
-        <v>7.405728840951099E-10</v>
+        <v>7.405745977809088E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769747378266969E-10</v>
+        <v>-9.769795280168889E-10</v>
       </c>
       <c r="W4">
-        <v>4.727986743285565E-10</v>
+        <v>4.727987868903276E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405713779948972E-10</v>
+        <v>-7.405820742722389E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769795280206826E-10</v>
+        <v>9.769740174793386E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,40 +6917,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824235</v>
+        <v>0.6194744497822945</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659343</v>
+        <v>0.9443347709660019</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678603</v>
+        <v>1.055985897678619</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792136</v>
+        <v>0.6194744497790845</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605383</v>
+        <v>0.9443347709606059</v>
       </c>
       <c r="AL4">
-        <v>1.055985897682488</v>
+        <v>1.055985897682503</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463837</v>
+        <v>-10.90775017464305</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044337</v>
       </c>
       <c r="AO4">
-        <v>106.7392371177116</v>
+        <v>106.7392371177191</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560496</v>
+        <v>-10.90775017560964</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043807</v>
       </c>
       <c r="AR4">
-        <v>106.7392371175029</v>
+        <v>106.7392371175104</v>
       </c>
     </row>
   </sheetData>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444422146160608E-09</v>
+        <v>-2.444428067349731E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111191302227634E-10</v>
+        <v>-6.110923451977423E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111168004622256E-10</v>
+        <v>-6.111210576435455E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444419778087494E-09</v>
+        <v>2.444424909784698E-09</v>
       </c>
       <c r="R2">
-        <v>6.111176712821872E-10</v>
+        <v>6.111022875808614E-10</v>
       </c>
       <c r="S2">
-        <v>6.11115538894631E-10</v>
+        <v>6.111213750598039E-10</v>
       </c>
       <c r="T2">
-        <v>-8.684765397097865E-15</v>
+        <v>-7.105782845950841E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175429464065214E-09</v>
+        <v>-3.17542291963504E-09</v>
       </c>
       <c r="V2">
-        <v>3.175411831653448E-09</v>
+        <v>3.175389741068255E-09</v>
       </c>
       <c r="W2">
-        <v>1.026398721090163E-14</v>
+        <v>7.895512738059445E-15</v>
       </c>
       <c r="X2">
-        <v>3.17543293561097E-09</v>
+        <v>3.175435896205048E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175416328660317E-09</v>
+        <v>-3.175402442715922E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,40 +7195,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308638</v>
+        <v>0.3333333333308173</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085271</v>
+        <v>0.8819171037083612</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611023</v>
+        <v>0.8819171036612854</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857744</v>
+        <v>0.3333333333857289</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296493</v>
+        <v>0.8819171037294823</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650358</v>
+        <v>0.8819171036505418</v>
       </c>
       <c r="AM2">
-        <v>8.301819694911283E-09</v>
+        <v>8.332413400441765E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487909</v>
+        <v>-100.893394648796</v>
       </c>
       <c r="AO2">
-        <v>100.8933946493849</v>
+        <v>100.8933946493856</v>
       </c>
       <c r="AP2">
-        <v>1.387935188673706E-08</v>
+        <v>1.391010798267371E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503484</v>
       </c>
       <c r="AR2">
-        <v>100.8933946513358</v>
+        <v>100.8933946513364</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.14812119184076E-10</v>
+        <v>8.148093559622154E-10</v>
       </c>
       <c r="O3">
-        <v>2.037055356734855E-10</v>
+        <v>2.037012359801607E-10</v>
       </c>
       <c r="P3">
-        <v>2.037010773223318E-10</v>
+        <v>2.037023389906563E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148144876151193E-10</v>
+        <v>-8.148093559174723E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036995795546853E-10</v>
+        <v>-2.036961854988549E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037010773111463E-10</v>
+        <v>-2.037020216638835E-10</v>
       </c>
       <c r="T3">
-        <v>2.368699607562292E-15</v>
+        <v>-2.368251528042315E-15</v>
       </c>
       <c r="U3">
-        <v>1.058479486092421E-09</v>
+        <v>1.058479250004031E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058472899038757E-09</v>
+        <v>-1.058468401972614E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673167217625E-15</v>
+        <v>1.578786040372257E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058481695903803E-09</v>
+        <v>-1.058469586315373E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058472899045368E-09</v>
+        <v>1.058455700272068E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,40 +7326,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040784</v>
+        <v>0.3333333334040329</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366896</v>
+        <v>0.8819171037365224</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036469607</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857744</v>
+        <v>0.3333333333857289</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296493</v>
+        <v>0.8819171037294823</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650358</v>
+        <v>0.8819171036505418</v>
       </c>
       <c r="AM3">
-        <v>1.573860942983444E-08</v>
+        <v>1.576940122970269E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508608</v>
+        <v>-100.8933946508658</v>
       </c>
       <c r="AO3">
-        <v>100.893394651986</v>
+        <v>100.8933946519867</v>
       </c>
       <c r="AP3">
-        <v>1.387935188673706E-08</v>
+        <v>1.391010798267371E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503484</v>
       </c>
       <c r="AR3">
-        <v>100.8933946513358</v>
+        <v>100.8933946513364</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148121191840753E-10</v>
+        <v>8.148125139299296E-10</v>
       </c>
       <c r="O4">
-        <v>2.037083763256133E-10</v>
+        <v>2.037061277924872E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031284825306E-10</v>
+        <v>2.037064413110536E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148113296474039E-10</v>
+        <v>-8.148156718529014E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037008412229554E-10</v>
+        <v>-2.036969749907837E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315437E-10</v>
+        <v>-2.037020216638835E-10</v>
       </c>
       <c r="T4">
-        <v>3.947683464847768E-15</v>
+        <v>2.36870004506826E-15</v>
       </c>
       <c r="U4">
-        <v>1.058483193666854E-09</v>
+        <v>1.0584825628325E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058472504292793E-09</v>
+        <v>-1.058467612480685E-09</v>
       </c>
       <c r="W4">
-        <v>-3.947657023945715E-15</v>
+        <v>-1.579181676146833E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058477198837441E-09</v>
+        <v>-1.058473688635771E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058455700272068E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,40 +7457,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040783</v>
+        <v>0.3333333334040331</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366896</v>
+        <v>0.8819171037365225</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036469605</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857744</v>
+        <v>0.3333333333857289</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296493</v>
+        <v>0.8819171037294823</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650358</v>
+        <v>0.8819171036505418</v>
       </c>
       <c r="AM4">
-        <v>1.573858873486615E-08</v>
+        <v>1.5769366261293E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508608</v>
+        <v>-100.8933946508658</v>
       </c>
       <c r="AO4">
-        <v>100.893394651986</v>
+        <v>100.8933946519867</v>
       </c>
       <c r="AP4">
-        <v>1.387935188673706E-08</v>
+        <v>1.391010798267371E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503484</v>
       </c>
       <c r="AR4">
-        <v>100.8933946513358</v>
+        <v>100.8933946513364</v>
       </c>
     </row>
   </sheetData>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444422146160608E-09</v>
+        <v>-2.444428067349731E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111191302227634E-10</v>
+        <v>-6.110923451977423E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111168004622256E-10</v>
+        <v>-6.111210576435455E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444419778087494E-09</v>
+        <v>2.444424909784698E-09</v>
       </c>
       <c r="R2">
-        <v>6.111176712821872E-10</v>
+        <v>6.111022875808614E-10</v>
       </c>
       <c r="S2">
-        <v>6.11115538894631E-10</v>
+        <v>6.111213750598039E-10</v>
       </c>
       <c r="T2">
-        <v>-8.684765397097865E-15</v>
+        <v>-7.105782845950841E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175429464065214E-09</v>
+        <v>-3.17542291963504E-09</v>
       </c>
       <c r="V2">
-        <v>3.175411831653448E-09</v>
+        <v>3.175389741068255E-09</v>
       </c>
       <c r="W2">
-        <v>1.026398721090163E-14</v>
+        <v>7.895512738059445E-15</v>
       </c>
       <c r="X2">
-        <v>3.17543293561097E-09</v>
+        <v>3.175435896205048E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175416328660317E-09</v>
+        <v>-3.175402442715922E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,40 +7735,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308638</v>
+        <v>0.3333333333308173</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085271</v>
+        <v>0.8819171037083612</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611023</v>
+        <v>0.8819171036612854</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857744</v>
+        <v>0.3333333333857289</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296493</v>
+        <v>0.8819171037294823</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650358</v>
+        <v>0.8819171036505418</v>
       </c>
       <c r="AM2">
-        <v>8.301819694911283E-09</v>
+        <v>8.332413400441765E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487909</v>
+        <v>-100.893394648796</v>
       </c>
       <c r="AO2">
-        <v>100.8933946493849</v>
+        <v>100.8933946493856</v>
       </c>
       <c r="AP2">
-        <v>1.387935188673706E-08</v>
+        <v>1.391010798267371E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503484</v>
       </c>
       <c r="AR2">
-        <v>100.8933946513358</v>
+        <v>100.8933946513364</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.14812119184076E-10</v>
+        <v>8.148093559622154E-10</v>
       </c>
       <c r="O3">
-        <v>2.037055356734855E-10</v>
+        <v>2.037012359801607E-10</v>
       </c>
       <c r="P3">
-        <v>2.037010773223318E-10</v>
+        <v>2.037023389906563E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148144876151193E-10</v>
+        <v>-8.148093559174723E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036995795546853E-10</v>
+        <v>-2.036961854988549E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037010773111463E-10</v>
+        <v>-2.037020216638835E-10</v>
       </c>
       <c r="T3">
-        <v>2.368699607562292E-15</v>
+        <v>-2.368251528042315E-15</v>
       </c>
       <c r="U3">
-        <v>1.058479486092421E-09</v>
+        <v>1.058479250004031E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058472899038757E-09</v>
+        <v>-1.058468401972614E-09</v>
       </c>
       <c r="W3">
-        <v>-2.368673167217625E-15</v>
+        <v>1.578786040372257E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058481695903803E-09</v>
+        <v>-1.058469586315373E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058472899045368E-09</v>
+        <v>1.058455700272068E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,40 +7866,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040784</v>
+        <v>0.3333333334040329</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366896</v>
+        <v>0.8819171037365224</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036469607</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857744</v>
+        <v>0.3333333333857289</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296493</v>
+        <v>0.8819171037294823</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650358</v>
+        <v>0.8819171036505418</v>
       </c>
       <c r="AM3">
-        <v>1.573860942983444E-08</v>
+        <v>1.576940122970269E-08</v>
       </c>
       <c r="AN3">
-        <v>-100.8933946508608</v>
+        <v>-100.8933946508658</v>
       </c>
       <c r="AO3">
-        <v>100.893394651986</v>
+        <v>100.8933946519867</v>
       </c>
       <c r="AP3">
-        <v>1.387935188673706E-08</v>
+        <v>1.391010798267371E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503484</v>
       </c>
       <c r="AR3">
-        <v>100.8933946513358</v>
+        <v>100.8933946513364</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148121191840753E-10</v>
+        <v>8.148125139299296E-10</v>
       </c>
       <c r="O4">
-        <v>2.037083763256133E-10</v>
+        <v>2.037061277924872E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031284825306E-10</v>
+        <v>2.037064413110536E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148113296474039E-10</v>
+        <v>-8.148156718529014E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037008412229554E-10</v>
+        <v>-2.036969749907837E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037051796315437E-10</v>
+        <v>-2.037020216638835E-10</v>
       </c>
       <c r="T4">
-        <v>3.947683464847768E-15</v>
+        <v>2.36870004506826E-15</v>
       </c>
       <c r="U4">
-        <v>1.058483193666854E-09</v>
+        <v>1.0584825628325E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058472504292793E-09</v>
+        <v>-1.058467612480685E-09</v>
       </c>
       <c r="W4">
-        <v>-3.947657023945715E-15</v>
+        <v>-1.579181676146833E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058477198837441E-09</v>
+        <v>-1.058473688635771E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058472109553439E-09</v>
+        <v>1.058455700272068E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,40 +7997,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040783</v>
+        <v>0.3333333334040331</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366896</v>
+        <v>0.8819171037365225</v>
       </c>
       <c r="AI4">
-        <v>0.8819171036467766</v>
+        <v>0.8819171036469605</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857744</v>
+        <v>0.3333333333857289</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296493</v>
+        <v>0.8819171037294823</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650358</v>
+        <v>0.8819171036505418</v>
       </c>
       <c r="AM4">
-        <v>1.573858873486615E-08</v>
+        <v>1.5769366261293E-08</v>
       </c>
       <c r="AN4">
-        <v>-100.8933946508608</v>
+        <v>-100.8933946508658</v>
       </c>
       <c r="AO4">
-        <v>100.893394651986</v>
+        <v>100.8933946519867</v>
       </c>
       <c r="AP4">
-        <v>1.387935188673706E-08</v>
+        <v>1.391010798267371E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503433</v>
+        <v>-100.8933946503484</v>
       </c>
       <c r="AR4">
-        <v>100.8933946513358</v>
+        <v>100.8933946513364</v>
       </c>
     </row>
   </sheetData>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624743426978606E-09</v>
+        <v>-2.624741501565157E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140203781488982E-09</v>
+        <v>-1.140184589707011E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721801474306162E-10</v>
+        <v>-1.721700567124974E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624737871495294E-09</v>
+        <v>2.624740091116168E-09</v>
       </c>
       <c r="R2">
-        <v>1.140204096875761E-09</v>
+        <v>1.140191939493047E-09</v>
       </c>
       <c r="S2">
-        <v>1.721795168125661E-10</v>
+        <v>1.721669751070347E-10</v>
       </c>
       <c r="T2">
-        <v>1.117767269819908E-09</v>
+        <v>1.117777360537263E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947074445398579E-09</v>
+        <v>-1.94706148269059E-09</v>
       </c>
       <c r="V2">
-        <v>2.505960656265669E-09</v>
+        <v>2.505925912289549E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117765555982496E-09</v>
+        <v>-1.117774476720197E-09</v>
       </c>
       <c r="X2">
-        <v>1.947075410840142E-09</v>
+        <v>1.947067629333964E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505958484736505E-09</v>
+        <v>-2.505931516595756E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,40 +8275,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499196</v>
+        <v>0.5421614591498412</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155461</v>
+        <v>0.8576025463154225</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659631</v>
+        <v>0.9547184906661187</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770473</v>
+        <v>0.5421614591769696</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355486</v>
+        <v>0.8576025463354241</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556987</v>
+        <v>0.9547184906558545</v>
       </c>
       <c r="AM2">
-        <v>-10.8027716940331</v>
+        <v>-10.80277169401887</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155923</v>
+        <v>-108.0887396155987</v>
       </c>
       <c r="AO2">
-        <v>106.1949204558219</v>
+        <v>106.1949204558224</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013774</v>
+        <v>-10.80277169012343</v>
       </c>
       <c r="AQ2">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163414</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570494</v>
+        <v>106.1949204570499</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749163566267745E-10</v>
+        <v>8.74916115950074E-10</v>
       </c>
       <c r="O3">
-        <v>3.800647867740063E-10</v>
+        <v>3.800682360522896E-10</v>
       </c>
       <c r="P3">
-        <v>5.739091835053542E-11</v>
+        <v>5.739326543958895E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749171076119571E-10</v>
+        <v>-8.749180079366936E-10</v>
       </c>
       <c r="R3">
-        <v>-3.80066994112847E-10</v>
+        <v>-3.800640784739622E-10</v>
       </c>
       <c r="S3">
-        <v>-5.739263476392847E-11</v>
+        <v>-5.739743284039097E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725929348115755E-10</v>
+        <v>-3.725941961510746E-10</v>
       </c>
       <c r="U3">
-        <v>6.490130199919902E-10</v>
+        <v>6.490268510798499E-10</v>
       </c>
       <c r="V3">
-        <v>-8.35313085524814E-10</v>
+        <v>-8.353171131870733E-10</v>
       </c>
       <c r="W3">
-        <v>3.725924244936377E-10</v>
+        <v>3.725945571796909E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490197778651133E-10</v>
+        <v>-6.490239354375455E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353149416918074E-10</v>
+        <v>8.353111935186963E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,40 +8406,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.54216145918609</v>
+        <v>0.5421614591860123</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422158</v>
+        <v>0.8576025463420911</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522772</v>
+        <v>0.9547184906524333</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770473</v>
+        <v>0.5421614591769696</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355486</v>
+        <v>0.8576025463354241</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556987</v>
+        <v>0.9547184906558545</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883924</v>
+        <v>-10.80277168882492</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165827</v>
+        <v>-108.088739616589</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.194920457459</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013774</v>
+        <v>-10.80277169012343</v>
       </c>
       <c r="AQ3">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163414</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570494</v>
+        <v>106.1949204570499</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749117926210257E-10</v>
+        <v>8.749165973034103E-10</v>
       </c>
       <c r="O4">
-        <v>3.800685707933203E-10</v>
+        <v>3.800682360522894E-10</v>
       </c>
       <c r="P4">
-        <v>5.73907427600308E-11</v>
+        <v>5.738857126151339E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.74917829641962E-10</v>
+        <v>-8.74918248613362E-10</v>
       </c>
       <c r="R4">
-        <v>-3.8006565514866E-10</v>
+        <v>-3.800640784739622E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739137342415724E-11</v>
+        <v>-5.739165291304914E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725894494253602E-10</v>
+        <v>-3.725916734715323E-10</v>
       </c>
       <c r="U4">
-        <v>6.490246049231783E-10</v>
+        <v>6.490268510798499E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353084271928052E-10</v>
+        <v>-8.353090578628269E-10</v>
       </c>
       <c r="W4">
-        <v>3.725886404743241E-10</v>
+        <v>3.725932958399196E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490287624923431E-10</v>
+        <v>-6.490239354375455E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353105986947416E-10</v>
+        <v>8.35303453529393E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,40 +8537,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.54216145918609</v>
+        <v>0.5421614591860124</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422158</v>
+        <v>0.8576025463420912</v>
       </c>
       <c r="AI4">
-        <v>0.9547184906522773</v>
+        <v>0.9547184906524331</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770473</v>
+        <v>0.5421614591769696</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355486</v>
+        <v>0.8576025463354241</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556987</v>
+        <v>0.9547184906558545</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883925</v>
+        <v>-10.80277168882493</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165827</v>
+        <v>-108.088739616589</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.194920457459</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013774</v>
+        <v>-10.80277169012343</v>
       </c>
       <c r="AQ4">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163414</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570494</v>
+        <v>106.1949204570499</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624743426978606E-09</v>
+        <v>-2.624741501565157E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140203781488982E-09</v>
+        <v>-1.140184589707011E-09</v>
       </c>
       <c r="P2">
-        <v>-1.721801474306162E-10</v>
+        <v>-1.721700567124974E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624737871495294E-09</v>
+        <v>2.624740091116168E-09</v>
       </c>
       <c r="R2">
-        <v>1.140204096875761E-09</v>
+        <v>1.140191939493047E-09</v>
       </c>
       <c r="S2">
-        <v>1.721795168125661E-10</v>
+        <v>1.721669751070347E-10</v>
       </c>
       <c r="T2">
-        <v>1.117767269819908E-09</v>
+        <v>1.117777360537263E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947074445398579E-09</v>
+        <v>-1.94706148269059E-09</v>
       </c>
       <c r="V2">
-        <v>2.505960656265669E-09</v>
+        <v>2.505925912289549E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117765555982496E-09</v>
+        <v>-1.117774476720197E-09</v>
       </c>
       <c r="X2">
-        <v>1.947075410840142E-09</v>
+        <v>1.947067629333964E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505958484736505E-09</v>
+        <v>-2.505931516595756E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,40 +8815,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499196</v>
+        <v>0.5421614591498412</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155461</v>
+        <v>0.8576025463154225</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659631</v>
+        <v>0.9547184906661187</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770473</v>
+        <v>0.5421614591769696</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355486</v>
+        <v>0.8576025463354241</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556987</v>
+        <v>0.9547184906558545</v>
       </c>
       <c r="AM2">
-        <v>-10.8027716940331</v>
+        <v>-10.80277169401887</v>
       </c>
       <c r="AN2">
-        <v>-108.0887396155923</v>
+        <v>-108.0887396155987</v>
       </c>
       <c r="AO2">
-        <v>106.1949204558219</v>
+        <v>106.1949204558224</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013774</v>
+        <v>-10.80277169012343</v>
       </c>
       <c r="AQ2">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163414</v>
       </c>
       <c r="AR2">
-        <v>106.1949204570494</v>
+        <v>106.1949204570499</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749163566267745E-10</v>
+        <v>8.74916115950074E-10</v>
       </c>
       <c r="O3">
-        <v>3.800647867740063E-10</v>
+        <v>3.800682360522896E-10</v>
       </c>
       <c r="P3">
-        <v>5.739091835053542E-11</v>
+        <v>5.739326543958895E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749171076119571E-10</v>
+        <v>-8.749180079366936E-10</v>
       </c>
       <c r="R3">
-        <v>-3.80066994112847E-10</v>
+        <v>-3.800640784739622E-10</v>
       </c>
       <c r="S3">
-        <v>-5.739263476392847E-11</v>
+        <v>-5.739743284039097E-11</v>
       </c>
       <c r="T3">
-        <v>-3.725929348115755E-10</v>
+        <v>-3.725941961510746E-10</v>
       </c>
       <c r="U3">
-        <v>6.490130199919902E-10</v>
+        <v>6.490268510798499E-10</v>
       </c>
       <c r="V3">
-        <v>-8.35313085524814E-10</v>
+        <v>-8.353171131870733E-10</v>
       </c>
       <c r="W3">
-        <v>3.725924244936377E-10</v>
+        <v>3.725945571796909E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490197778651133E-10</v>
+        <v>-6.490239354375455E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353149416918074E-10</v>
+        <v>8.353111935186963E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,40 +8946,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.54216145918609</v>
+        <v>0.5421614591860123</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422158</v>
+        <v>0.8576025463420911</v>
       </c>
       <c r="AI3">
-        <v>0.9547184906522772</v>
+        <v>0.9547184906524333</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770473</v>
+        <v>0.5421614591769696</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355486</v>
+        <v>0.8576025463354241</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556987</v>
+        <v>0.9547184906558545</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883924</v>
+        <v>-10.80277168882492</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165827</v>
+        <v>-108.088739616589</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.194920457459</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013774</v>
+        <v>-10.80277169012343</v>
       </c>
       <c r="AQ3">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163414</v>
       </c>
       <c r="AR3">
-        <v>106.1949204570494</v>
+        <v>106.1949204570499</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749117926210257E-10</v>
+        <v>8.749165973034103E-10</v>
       </c>
       <c r="O4">
-        <v>3.800685707933203E-10</v>
+        <v>3.800682360522894E-10</v>
       </c>
       <c r="P4">
-        <v>5.73907427600308E-11</v>
+        <v>5.738857126151339E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.74917829641962E-10</v>
+        <v>-8.74918248613362E-10</v>
       </c>
       <c r="R4">
-        <v>-3.8006565514866E-10</v>
+        <v>-3.800640784739622E-10</v>
       </c>
       <c r="S4">
-        <v>-5.739137342415724E-11</v>
+        <v>-5.739165291304914E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725894494253602E-10</v>
+        <v>-3.725916734715323E-10</v>
       </c>
       <c r="U4">
-        <v>6.490246049231783E-10</v>
+        <v>6.490268510798499E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353084271928052E-10</v>
+        <v>-8.353090578628269E-10</v>
       </c>
       <c r="W4">
-        <v>3.725886404743241E-10</v>
+        <v>3.725932958399196E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490287624923431E-10</v>
+        <v>-6.490239354375455E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353105986947416E-10</v>
+        <v>8.35303453529393E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,40 +9077,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.54216145918609</v>
+        <v>0.5421614591860124</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422158</v>
+        <v>0.8576025463420912</v>
       </c>
       <c r="AI4">
-        <v>0.9547184906522773</v>
+        <v>0.9547184906524331</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770473</v>
+        <v>0.5421614591769696</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355486</v>
+        <v>0.8576025463354241</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556987</v>
+        <v>0.9547184906558545</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883925</v>
+        <v>-10.80277168882493</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165827</v>
+        <v>-108.088739616589</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.194920457459</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013774</v>
+        <v>-10.80277169012343</v>
       </c>
       <c r="AQ4">
-        <v>-108.0887396163351</v>
+        <v>-108.0887396163414</v>
       </c>
       <c r="AR4">
-        <v>106.1949204570494</v>
+        <v>106.1949204570499</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957795889522992E-09</v>
+        <v>-2.957764625640912E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394411560632703E-10</v>
+        <v>-7.394394191837003E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394255247709875E-10</v>
+        <v>-7.394498411212461E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957788942057318E-09</v>
+        <v>2.957761151939793E-09</v>
       </c>
       <c r="R2">
-        <v>7.394359458605396E-10</v>
+        <v>7.394481040392029E-10</v>
       </c>
       <c r="S2">
-        <v>7.394255252150951E-10</v>
+        <v>7.394428940362388E-10</v>
       </c>
       <c r="T2">
-        <v>-3.473841175428288E-15</v>
+        <v>1.389498247265502E-14</v>
       </c>
       <c r="U2">
-        <v>3.842261503497654E-09</v>
+        <v>3.842258029735351E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842261507934167E-09</v>
+        <v>-3.842289298053769E-09</v>
       </c>
       <c r="W2">
-        <v>6.947677722203624E-15</v>
+        <v>3.473912318569847E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842261502993752E-09</v>
+        <v>-3.84225802923146E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842261508438051E-09</v>
+        <v>3.842282351028544E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491944503</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874888</v>
+        <v>0.3666666743877444</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072247</v>
+        <v>0.3666666748074798</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104369</v>
+        <v>0.7333333492101799</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489838</v>
+        <v>0.3666666743492405</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748617145</v>
       </c>
       <c r="AM2">
-        <v>1.484104847775626E-09</v>
+        <v>1.467795865013524E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988592</v>
+        <v>-179.9999999988265</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981704</v>
+        <v>-179.9999999981376</v>
       </c>
       <c r="AP2">
-        <v>2.878551440103797E-09</v>
+        <v>2.862258423293403E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910788</v>
+        <v>-179.9999999910461</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968234</v>
+        <v>179.9999999968561</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859273315164475E-10</v>
+        <v>9.859342790452249E-10</v>
       </c>
       <c r="O3">
-        <v>2.464618588074902E-10</v>
+        <v>2.464774907489051E-10</v>
       </c>
       <c r="P3">
-        <v>2.46484438493213E-10</v>
+        <v>2.464879122572178E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859238577448377E-10</v>
+        <v>-9.859342790381761E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464740169341019E-10</v>
+        <v>-2.46468806288165E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464913859729948E-10</v>
+        <v>-2.464879122078723E-10</v>
       </c>
       <c r="T3">
-        <v>1.042135121507568E-14</v>
+        <v>5.725203268182679E-20</v>
       </c>
       <c r="U3">
-        <v>-1.280749202589188E-09</v>
+        <v>-1.280745728825382E-09</v>
       </c>
       <c r="V3">
-        <v>1.28074920451592E-09</v>
+        <v>1.280742256987829E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953301211123591E-20</v>
+        <v>1.042124443026965E-14</v>
       </c>
       <c r="X3">
-        <v>1.280756150174291E-09</v>
+        <v>1.280745728881371E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280742256931842E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,40 +9486,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156802</v>
+        <v>0.7333333492154234</v>
       </c>
       <c r="AH3">
-        <v>0.366666674336149</v>
+        <v>0.3666666743364057</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795359</v>
+        <v>0.3666666748797923</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104369</v>
+        <v>0.7333333492101799</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489838</v>
+        <v>0.3666666743492405</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748617145</v>
       </c>
       <c r="AM3">
-        <v>3.343365604350035E-09</v>
+        <v>3.327097871462819E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884853</v>
+        <v>-179.9999999884527</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951595</v>
+        <v>179.9999999951922</v>
       </c>
       <c r="AP3">
-        <v>2.878551440103797E-09</v>
+        <v>2.862258423293403E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910788</v>
+        <v>-179.9999999910461</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968234</v>
+        <v>179.9999999968561</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859238577518863E-10</v>
+        <v>9.85916910222418E-10</v>
       </c>
       <c r="O4">
-        <v>2.464688063366077E-10</v>
+        <v>2.464774907489058E-10</v>
       </c>
       <c r="P4">
-        <v>2.464844384932145E-10</v>
+        <v>2.464948597863458E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859273315093987E-10</v>
+        <v>-9.859169102153703E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464809644632194E-10</v>
+        <v>-2.46468806288165E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464844384438684E-10</v>
+        <v>-2.464948597370003E-10</v>
       </c>
       <c r="T4">
-        <v>1.042135121485297E-14</v>
+        <v>6.947586373096175E-15</v>
       </c>
       <c r="U4">
-        <v>-1.280749202589186E-09</v>
+        <v>-1.280745728825384E-09</v>
       </c>
       <c r="V4">
-        <v>1.280763099574175E-09</v>
+        <v>1.280749204516957E-09</v>
       </c>
       <c r="W4">
-        <v>-4.953318663386331E-20</v>
+        <v>1.042124443113732E-14</v>
       </c>
       <c r="X4">
-        <v>1.280756150174289E-09</v>
+        <v>1.280745728881371E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518186E-09</v>
+        <v>-1.280756151990096E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,40 +9617,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156802</v>
+        <v>0.7333333492154229</v>
       </c>
       <c r="AH4">
-        <v>0.366666674336149</v>
+        <v>0.3666666743364061</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795359</v>
+        <v>0.3666666748797928</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104369</v>
+        <v>0.7333333492101799</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489838</v>
+        <v>0.3666666743492405</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748617145</v>
       </c>
       <c r="AM4">
-        <v>3.343364441511545E-09</v>
+        <v>3.327082190259028E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884853</v>
+        <v>-179.9999999884527</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951595</v>
+        <v>179.9999999951922</v>
       </c>
       <c r="AP4">
-        <v>2.878551440103797E-09</v>
+        <v>2.862258423293403E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910788</v>
+        <v>-179.9999999910461</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968234</v>
+        <v>179.9999999968561</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957795889522992E-09</v>
+        <v>-2.957764625640912E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394411560632703E-10</v>
+        <v>-7.394394191837003E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394255247709875E-10</v>
+        <v>-7.394498411212461E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957788942057318E-09</v>
+        <v>2.957761151939793E-09</v>
       </c>
       <c r="R2">
-        <v>7.394359458605396E-10</v>
+        <v>7.394481040392029E-10</v>
       </c>
       <c r="S2">
-        <v>7.394255252150951E-10</v>
+        <v>7.394428940362388E-10</v>
       </c>
       <c r="T2">
-        <v>-3.473841175428288E-15</v>
+        <v>1.389498247265502E-14</v>
       </c>
       <c r="U2">
-        <v>3.842261503497654E-09</v>
+        <v>3.842258029735351E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842261507934167E-09</v>
+        <v>-3.842289298053769E-09</v>
       </c>
       <c r="W2">
-        <v>6.947677722203624E-15</v>
+        <v>3.473912318569847E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842261502993752E-09</v>
+        <v>-3.84225802923146E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842261508438051E-09</v>
+        <v>3.842282351028544E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491944503</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874888</v>
+        <v>0.3666666743877444</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072247</v>
+        <v>0.3666666748074798</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104369</v>
+        <v>0.7333333492101799</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489838</v>
+        <v>0.3666666743492405</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748617145</v>
       </c>
       <c r="AM2">
-        <v>1.484104847775626E-09</v>
+        <v>1.467795865013524E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988592</v>
+        <v>-179.9999999988265</v>
       </c>
       <c r="AO2">
-        <v>-179.9999999981704</v>
+        <v>-179.9999999981376</v>
       </c>
       <c r="AP2">
-        <v>2.878551440103797E-09</v>
+        <v>2.862258423293403E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999910788</v>
+        <v>-179.9999999910461</v>
       </c>
       <c r="AR2">
-        <v>179.9999999968234</v>
+        <v>179.9999999968561</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859273315164475E-10</v>
+        <v>9.859342790452249E-10</v>
       </c>
       <c r="O3">
-        <v>2.464618588074902E-10</v>
+        <v>2.464774907489051E-10</v>
       </c>
       <c r="P3">
-        <v>2.46484438493213E-10</v>
+        <v>2.464879122572178E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859238577448377E-10</v>
+        <v>-9.859342790381761E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464740169341019E-10</v>
+        <v>-2.46468806288165E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464913859729948E-10</v>
+        <v>-2.464879122078723E-10</v>
       </c>
       <c r="T3">
-        <v>1.042135121507568E-14</v>
+        <v>5.725203268182679E-20</v>
       </c>
       <c r="U3">
-        <v>-1.280749202589188E-09</v>
+        <v>-1.280745728825382E-09</v>
       </c>
       <c r="V3">
-        <v>1.28074920451592E-09</v>
+        <v>1.280742256987829E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953301211123591E-20</v>
+        <v>1.042124443026965E-14</v>
       </c>
       <c r="X3">
-        <v>1.280756150174291E-09</v>
+        <v>1.280745728881371E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280742256931842E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,40 +10026,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156802</v>
+        <v>0.7333333492154234</v>
       </c>
       <c r="AH3">
-        <v>0.366666674336149</v>
+        <v>0.3666666743364057</v>
       </c>
       <c r="AI3">
-        <v>0.3666666748795359</v>
+        <v>0.3666666748797923</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104369</v>
+        <v>0.7333333492101799</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489838</v>
+        <v>0.3666666743492405</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748617145</v>
       </c>
       <c r="AM3">
-        <v>3.343365604350035E-09</v>
+        <v>3.327097871462819E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884853</v>
+        <v>-179.9999999884527</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951595</v>
+        <v>179.9999999951922</v>
       </c>
       <c r="AP3">
-        <v>2.878551440103797E-09</v>
+        <v>2.862258423293403E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999910788</v>
+        <v>-179.9999999910461</v>
       </c>
       <c r="AR3">
-        <v>179.9999999968234</v>
+        <v>179.9999999968561</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859238577518863E-10</v>
+        <v>9.85916910222418E-10</v>
       </c>
       <c r="O4">
-        <v>2.464688063366077E-10</v>
+        <v>2.464774907489058E-10</v>
       </c>
       <c r="P4">
-        <v>2.464844384932145E-10</v>
+        <v>2.464948597863458E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859273315093987E-10</v>
+        <v>-9.859169102153703E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464809644632194E-10</v>
+        <v>-2.46468806288165E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464844384438684E-10</v>
+        <v>-2.464948597370003E-10</v>
       </c>
       <c r="T4">
-        <v>1.042135121485297E-14</v>
+        <v>6.947586373096175E-15</v>
       </c>
       <c r="U4">
-        <v>-1.280749202589186E-09</v>
+        <v>-1.280745728825384E-09</v>
       </c>
       <c r="V4">
-        <v>1.280763099574175E-09</v>
+        <v>1.280749204516957E-09</v>
       </c>
       <c r="W4">
-        <v>-4.953318663386331E-20</v>
+        <v>1.042124443113732E-14</v>
       </c>
       <c r="X4">
-        <v>1.280756150174289E-09</v>
+        <v>1.280745728881371E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280763099518186E-09</v>
+        <v>-1.280756151990096E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,40 +10157,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156802</v>
+        <v>0.7333333492154229</v>
       </c>
       <c r="AH4">
-        <v>0.366666674336149</v>
+        <v>0.3666666743364061</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795359</v>
+        <v>0.3666666748797928</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104369</v>
+        <v>0.7333333492101799</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489838</v>
+        <v>0.3666666743492405</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748617145</v>
       </c>
       <c r="AM4">
-        <v>3.343364441511545E-09</v>
+        <v>3.327082190259028E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884853</v>
+        <v>-179.9999999884527</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951595</v>
+        <v>179.9999999951922</v>
       </c>
       <c r="AP4">
-        <v>2.878551440103797E-09</v>
+        <v>2.862258423293403E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999910788</v>
+        <v>-179.9999999910461</v>
       </c>
       <c r="AR4">
-        <v>179.9999999968234</v>
+        <v>179.9999999968561</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272195091864419E-09</v>
+        <v>-2.27216831697044E-09</v>
       </c>
       <c r="O2">
-        <v>-1.90414248905778E-09</v>
+        <v>-1.904127467833825E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132483613792823E-09</v>
+        <v>-3.132512232780557E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190768231164E-09</v>
+        <v>2.272169427551186E-09</v>
       </c>
       <c r="R2">
-        <v>1.904143837228161E-09</v>
+        <v>1.904131560340851E-09</v>
       </c>
       <c r="S2">
-        <v>3.132488814702783E-09</v>
+        <v>3.132506378419354E-09</v>
       </c>
       <c r="T2">
-        <v>7.091706117846723E-10</v>
+        <v>7.092053601907E-10</v>
       </c>
       <c r="U2">
-        <v>4.349294280820256E-09</v>
+        <v>4.34929143964927E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033481413903484E-10</v>
+        <v>-8.033523824821809E-10</v>
       </c>
       <c r="W2">
-        <v>-7.091743801385709E-10</v>
+        <v>-7.09189176053488E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349297024917476E-09</v>
+        <v>-4.349292835787134E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033549739831911E-10</v>
+        <v>8.033530305374257E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.856149831650308</v>
+        <v>0.8561498316501133</v>
       </c>
       <c r="AH2">
-        <v>0.6454597859038536</v>
+        <v>0.6454597859040822</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143214</v>
+        <v>0.4396365303143629</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569935</v>
+        <v>0.8561498316567981</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858857704</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501952</v>
+        <v>0.4396365303502376</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880379</v>
+        <v>-3.925473815888509</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488139</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510056</v>
+        <v>128.685835551035</v>
       </c>
       <c r="AP2">
-        <v>-3.92547381487826</v>
+        <v>-3.925473814886364</v>
       </c>
       <c r="AQ2">
-        <v>-153.840718245323</v>
+        <v>-153.8407182453224</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355542153</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573833434486811E-10</v>
+        <v>7.574073419653364E-10</v>
       </c>
       <c r="O3">
-        <v>6.347068126033632E-10</v>
+        <v>6.347053678083891E-10</v>
       </c>
       <c r="P3">
-        <v>1.04417161012759E-09</v>
+        <v>1.044172911816656E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573908802215356E-10</v>
+        <v>-7.573943709717811E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347053677847019E-10</v>
+        <v>-6.347068609980844E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044172911793246E-09</v>
+        <v>-1.044178766365436E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363918832588073E-10</v>
+        <v>-2.363975951105118E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449772912480409E-09</v>
+        <v>-1.449783841409587E-09</v>
       </c>
       <c r="V3">
-        <v>2.677874887823913E-10</v>
+        <v>2.677858631859423E-10</v>
       </c>
       <c r="W3">
-        <v>2.364005305894113E-10</v>
+        <v>2.364089002786182E-10</v>
       </c>
       <c r="X3">
-        <v>1.449783841435683E-09</v>
+        <v>1.44976607587486E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677858631587773E-10</v>
+        <v>-2.677852153435222E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,40 +10566,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592219</v>
+        <v>0.8561498316590265</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794373</v>
+        <v>0.6454597858796661</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621532</v>
+        <v>0.4396365303621957</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569935</v>
+        <v>0.8561498316567981</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858857704</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501952</v>
+        <v>0.4396365303502376</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544219</v>
+        <v>-3.925473814552308</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441586</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.6858355552753</v>
       </c>
       <c r="AP3">
-        <v>-3.92547381487826</v>
+        <v>-3.925473814886364</v>
       </c>
       <c r="AQ3">
-        <v>-153.840718245323</v>
+        <v>-153.8407182453224</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355542153</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573995275516888E-10</v>
+        <v>7.573986946385326E-10</v>
       </c>
       <c r="O4">
-        <v>6.347177899499608E-10</v>
+        <v>6.346999759709441E-10</v>
       </c>
       <c r="P4">
-        <v>1.044174213505795E-09</v>
+        <v>1.044171616185021E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573986946353894E-10</v>
+        <v>-7.573938156964811E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347053677847019E-10</v>
+        <v>-6.347068609980844E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044175515171451E-09</v>
+        <v>-1.044170968345757E-09</v>
       </c>
       <c r="T4">
-        <v>-2.36392993809407E-10</v>
+        <v>-2.364051318867157E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449767520642964E-09</v>
+        <v>-1.44977286406299E-09</v>
       </c>
       <c r="V4">
-        <v>2.677842375883691E-10</v>
+        <v>2.677741540414877E-10</v>
       </c>
       <c r="W4">
-        <v>2.364051318904632E-10</v>
+        <v>2.36416992330122E-10</v>
       </c>
       <c r="X4">
-        <v>1.449783841435683E-09</v>
+        <v>1.44976607587486E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677826119647549E-10</v>
+        <v>-2.677682994426572E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,40 +10697,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592219</v>
+        <v>0.8561498316590263</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858796663</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621532</v>
+        <v>0.4396365303621956</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569935</v>
+        <v>0.8561498316567981</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858857704</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501952</v>
+        <v>0.4396365303502376</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544218</v>
+        <v>-3.925473814552314</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441586</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.6858355552754</v>
       </c>
       <c r="AP4">
-        <v>-3.92547381487826</v>
+        <v>-3.925473814886364</v>
       </c>
       <c r="AQ4">
-        <v>-153.840718245323</v>
+        <v>-153.8407182453224</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355542153</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.272195091864419E-09</v>
+        <v>-2.27216831697044E-09</v>
       </c>
       <c r="O2">
-        <v>-1.90414248905778E-09</v>
+        <v>-1.904127467833825E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132483613792823E-09</v>
+        <v>-3.132512232780557E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272190768231164E-09</v>
+        <v>2.272169427551186E-09</v>
       </c>
       <c r="R2">
-        <v>1.904143837228161E-09</v>
+        <v>1.904131560340851E-09</v>
       </c>
       <c r="S2">
-        <v>3.132488814702783E-09</v>
+        <v>3.132506378419354E-09</v>
       </c>
       <c r="T2">
-        <v>7.091706117846723E-10</v>
+        <v>7.092053601907E-10</v>
       </c>
       <c r="U2">
-        <v>4.349294280820256E-09</v>
+        <v>4.34929143964927E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033481413903484E-10</v>
+        <v>-8.033523824821809E-10</v>
       </c>
       <c r="W2">
-        <v>-7.091743801385709E-10</v>
+        <v>-7.09189176053488E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349297024917476E-09</v>
+        <v>-4.349292835787134E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033549739831911E-10</v>
+        <v>8.033530305374257E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.856149831650308</v>
+        <v>0.8561498316501133</v>
       </c>
       <c r="AH2">
-        <v>0.6454597859038536</v>
+        <v>0.6454597859040822</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143214</v>
+        <v>0.4396365303143629</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569935</v>
+        <v>0.8561498316567981</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858857704</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501952</v>
+        <v>0.4396365303502376</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880379</v>
+        <v>-3.925473815888509</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488145</v>
+        <v>-153.8407182488139</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510056</v>
+        <v>128.685835551035</v>
       </c>
       <c r="AP2">
-        <v>-3.92547381487826</v>
+        <v>-3.925473814886364</v>
       </c>
       <c r="AQ2">
-        <v>-153.840718245323</v>
+        <v>-153.8407182453224</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.6858355542153</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573833434486811E-10</v>
+        <v>7.574073419653364E-10</v>
       </c>
       <c r="O3">
-        <v>6.347068126033632E-10</v>
+        <v>6.347053678083891E-10</v>
       </c>
       <c r="P3">
-        <v>1.04417161012759E-09</v>
+        <v>1.044172911816656E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.573908802215356E-10</v>
+        <v>-7.573943709717811E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347053677847019E-10</v>
+        <v>-6.347068609980844E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044172911793246E-09</v>
+        <v>-1.044178766365436E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363918832588073E-10</v>
+        <v>-2.363975951105118E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449772912480409E-09</v>
+        <v>-1.449783841409587E-09</v>
       </c>
       <c r="V3">
-        <v>2.677874887823913E-10</v>
+        <v>2.677858631859423E-10</v>
       </c>
       <c r="W3">
-        <v>2.364005305894113E-10</v>
+        <v>2.364089002786182E-10</v>
       </c>
       <c r="X3">
-        <v>1.449783841435683E-09</v>
+        <v>1.44976607587486E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677858631587773E-10</v>
+        <v>-2.677852153435222E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,40 +11106,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592219</v>
+        <v>0.8561498316590265</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794373</v>
+        <v>0.6454597858796661</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621532</v>
+        <v>0.4396365303621957</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569935</v>
+        <v>0.8561498316567981</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858857704</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501952</v>
+        <v>0.4396365303502376</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544219</v>
+        <v>-3.925473814552308</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441586</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.6858355552753</v>
       </c>
       <c r="AP3">
-        <v>-3.92547381487826</v>
+        <v>-3.925473814886364</v>
       </c>
       <c r="AQ3">
-        <v>-153.840718245323</v>
+        <v>-153.8407182453224</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.6858355542153</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573995275516888E-10</v>
+        <v>7.573986946385326E-10</v>
       </c>
       <c r="O4">
-        <v>6.347177899499608E-10</v>
+        <v>6.346999759709441E-10</v>
       </c>
       <c r="P4">
-        <v>1.044174213505795E-09</v>
+        <v>1.044171616185021E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573986946353894E-10</v>
+        <v>-7.573938156964811E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347053677847019E-10</v>
+        <v>-6.347068609980844E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044175515171451E-09</v>
+        <v>-1.044170968345757E-09</v>
       </c>
       <c r="T4">
-        <v>-2.36392993809407E-10</v>
+        <v>-2.364051318867157E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449767520642964E-09</v>
+        <v>-1.44977286406299E-09</v>
       </c>
       <c r="V4">
-        <v>2.677842375883691E-10</v>
+        <v>2.677741540414877E-10</v>
       </c>
       <c r="W4">
-        <v>2.364051318904632E-10</v>
+        <v>2.36416992330122E-10</v>
       </c>
       <c r="X4">
-        <v>1.449783841435683E-09</v>
+        <v>1.44976607587486E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677826119647549E-10</v>
+        <v>-2.677682994426572E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,40 +11237,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592219</v>
+        <v>0.8561498316590263</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794374</v>
+        <v>0.6454597858796663</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621532</v>
+        <v>0.4396365303621956</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569935</v>
+        <v>0.8561498316567981</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858857704</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501952</v>
+        <v>0.4396365303502376</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544218</v>
+        <v>-3.925473814552314</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441591</v>
+        <v>-153.8407182441586</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.6858355552754</v>
       </c>
       <c r="AP4">
-        <v>-3.92547381487826</v>
+        <v>-3.925473814886364</v>
       </c>
       <c r="AQ4">
-        <v>-153.840718245323</v>
+        <v>-153.8407182453224</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.6858355542153</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444442278211303E-09</v>
+        <v>-2.444459647034125E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111196485106253E-10</v>
+        <v>-6.111141220655058E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111093857242857E-10</v>
+        <v>-6.111046487739354E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444439120344259E-09</v>
+        <v>2.444450173231654E-09</v>
       </c>
       <c r="R2">
-        <v>6.111212281991704E-10</v>
+        <v>6.111204387056209E-10</v>
       </c>
       <c r="S2">
-        <v>6.11110965412845E-10</v>
+        <v>6.111093864302163E-10</v>
       </c>
       <c r="T2">
-        <v>-1.578983701532902E-14</v>
+        <v>-1.263186984768816E-14</v>
       </c>
       <c r="U2">
-        <v>3.175393378733901E-09</v>
+        <v>3.175404431620149E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175409171709986E-09</v>
+        <v>-3.175421803579546E-09</v>
       </c>
       <c r="W2">
-        <v>1.263192879322301E-14</v>
+        <v>1.263192934118628E-14</v>
       </c>
       <c r="X2">
-        <v>-3.175394957301327E-09</v>
+        <v>-3.175402852219856E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175409172126425E-09</v>
+        <v>3.175421803995984E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,40 +11515,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635042</v>
+        <v>0.6666666666636112</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670298</v>
+        <v>0.3333333331669226</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964815</v>
+        <v>0.3333333334963734</v>
       </c>
       <c r="AJ2">
-        <v>0.66666666669096</v>
+        <v>0.6666666666910674</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386051</v>
+        <v>0.3333333331384972</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523634</v>
+        <v>0.3333333335522549</v>
       </c>
       <c r="AM2">
-        <v>-3.64958415120575E-11</v>
+        <v>-2.367837934639278E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.9999999981669</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980301</v>
       </c>
       <c r="AP2">
-        <v>1.357947435373903E-09</v>
+        <v>1.370785028637627E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844857</v>
+        <v>-179.9999999845114</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871632</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148172507495585E-10</v>
+        <v>8.148125137981177E-10</v>
       </c>
       <c r="O3">
-        <v>2.037054971608345E-10</v>
+        <v>2.037047076683661E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202484E-10</v>
+        <v>2.037078658399457E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029435E-10</v>
+        <v>-8.148188297223611E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037039180986798E-10</v>
+        <v>-2.03698391654641E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036983918580892E-10</v>
+        <v>-2.037031288100702E-10</v>
       </c>
       <c r="T3">
-        <v>2.592225809259487E-20</v>
+        <v>6.31596153335881E-15</v>
       </c>
       <c r="U3">
-        <v>-1.058471827984216E-09</v>
+        <v>-1.058470249000109E-09</v>
       </c>
       <c r="V3">
-        <v>1.058478145335658E-09</v>
+        <v>1.058471829399787E-09</v>
       </c>
       <c r="W3">
-        <v>-1.931155189149097E-20</v>
+        <v>-9.473922638120662E-15</v>
       </c>
       <c r="X3">
-        <v>1.058473407014344E-09</v>
+        <v>1.058471828030238E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289387E-09</v>
+        <v>-1.058465513418084E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11646,40 +11646,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.666666666700112</v>
+        <v>0.6666666667002195</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291298</v>
+        <v>0.333333333129022</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709905</v>
+        <v>0.3333333335708821</v>
       </c>
       <c r="AJ3">
-        <v>0.66666666669096</v>
+        <v>0.6666666666910674</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386051</v>
+        <v>0.3333333331384972</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523634</v>
+        <v>0.3333333335522549</v>
       </c>
       <c r="AM3">
-        <v>1.822784167601E-09</v>
+        <v>1.835578824146944E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799595</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835667</v>
+        <v>179.999999983541</v>
       </c>
       <c r="AP3">
-        <v>1.357947435373903E-09</v>
+        <v>1.370785028637627E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844857</v>
+        <v>-179.9999999845114</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871632</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148077768464141E-10</v>
+        <v>8.148125137981176E-10</v>
       </c>
       <c r="O4">
-        <v>2.037054971608368E-10</v>
+        <v>2.037047076683694E-10</v>
       </c>
       <c r="P4">
-        <v>2.037062868556781E-10</v>
+        <v>2.037047078722281E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706578E-10</v>
+        <v>-8.148188297223611E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037039180986806E-10</v>
+        <v>-2.037015496223554E-10</v>
       </c>
       <c r="S4">
-        <v>-2.03701549825803E-10</v>
+        <v>-2.036999708423551E-10</v>
       </c>
       <c r="T4">
-        <v>6.315961350451788E-15</v>
+        <v>9.473929247673606E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058471827984216E-09</v>
+        <v>-1.058476564935533E-09</v>
       </c>
       <c r="V4">
-        <v>1.058471829400224E-09</v>
+        <v>1.058471829399788E-09</v>
       </c>
       <c r="W4">
-        <v>-9.473922455439968E-15</v>
+        <v>-9.473922638120662E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982056E-09</v>
+        <v>1.058478143965662E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.05846551341852E-09</v>
+        <v>-1.058471829353517E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,40 +11777,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001117</v>
+        <v>0.6666666667002195</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291301</v>
+        <v>0.333333333129022</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709908</v>
+        <v>0.333333333570882</v>
       </c>
       <c r="AJ4">
-        <v>0.66666666669096</v>
+        <v>0.6666666666910674</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386051</v>
+        <v>0.3333333331384972</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523634</v>
+        <v>0.3333333335522549</v>
       </c>
       <c r="AM4">
-        <v>1.822727882866737E-09</v>
+        <v>1.835555374921828E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799595</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835411</v>
       </c>
       <c r="AP4">
-        <v>1.357947435373903E-09</v>
+        <v>1.370785028637627E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844857</v>
+        <v>-179.9999999845114</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871632</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444442278211303E-09</v>
+        <v>-2.444459647034125E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111196485106253E-10</v>
+        <v>-6.111141220655058E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111093857242857E-10</v>
+        <v>-6.111046487739354E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444439120344259E-09</v>
+        <v>2.444450173231654E-09</v>
       </c>
       <c r="R2">
-        <v>6.111212281991704E-10</v>
+        <v>6.111204387056209E-10</v>
       </c>
       <c r="S2">
-        <v>6.11110965412845E-10</v>
+        <v>6.111093864302163E-10</v>
       </c>
       <c r="T2">
-        <v>-1.578983701532902E-14</v>
+        <v>-1.263186984768816E-14</v>
       </c>
       <c r="U2">
-        <v>3.175393378733901E-09</v>
+        <v>3.175404431620149E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175409171709986E-09</v>
+        <v>-3.175421803579546E-09</v>
       </c>
       <c r="W2">
-        <v>1.263192879322301E-14</v>
+        <v>1.263192934118628E-14</v>
       </c>
       <c r="X2">
-        <v>-3.175394957301327E-09</v>
+        <v>-3.175402852219856E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175409172126425E-09</v>
+        <v>3.175421803995984E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,40 +12280,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635042</v>
+        <v>0.6666666666636112</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670298</v>
+        <v>0.3333333331669226</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964815</v>
+        <v>0.3333333334963734</v>
       </c>
       <c r="AJ2">
-        <v>0.66666666669096</v>
+        <v>0.6666666666910674</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386051</v>
+        <v>0.3333333331384972</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523634</v>
+        <v>0.3333333335522549</v>
       </c>
       <c r="AM2">
-        <v>-3.64958415120575E-11</v>
+        <v>-2.367837934639278E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981412</v>
+        <v>-179.9999999981669</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980301</v>
       </c>
       <c r="AP2">
-        <v>1.357947435373903E-09</v>
+        <v>1.370785028637627E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844857</v>
+        <v>-179.9999999845114</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871632</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148172507495585E-10</v>
+        <v>8.148125137981177E-10</v>
       </c>
       <c r="O3">
-        <v>2.037054971608345E-10</v>
+        <v>2.037047076683661E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202484E-10</v>
+        <v>2.037078658399457E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029435E-10</v>
+        <v>-8.148188297223611E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037039180986798E-10</v>
+        <v>-2.03698391654641E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036983918580892E-10</v>
+        <v>-2.037031288100702E-10</v>
       </c>
       <c r="T3">
-        <v>2.592225809259487E-20</v>
+        <v>6.31596153335881E-15</v>
       </c>
       <c r="U3">
-        <v>-1.058471827984216E-09</v>
+        <v>-1.058470249000109E-09</v>
       </c>
       <c r="V3">
-        <v>1.058478145335658E-09</v>
+        <v>1.058471829399787E-09</v>
       </c>
       <c r="W3">
-        <v>-1.931155189149097E-20</v>
+        <v>-9.473922638120662E-15</v>
       </c>
       <c r="X3">
-        <v>1.058473407014344E-09</v>
+        <v>1.058471828030238E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289387E-09</v>
+        <v>-1.058465513418084E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12411,40 +12411,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.666666666700112</v>
+        <v>0.6666666667002195</v>
       </c>
       <c r="AH3">
-        <v>0.3333333331291298</v>
+        <v>0.333333333129022</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709905</v>
+        <v>0.3333333335708821</v>
       </c>
       <c r="AJ3">
-        <v>0.66666666669096</v>
+        <v>0.6666666666910674</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386051</v>
+        <v>0.3333333331384972</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523634</v>
+        <v>0.3333333335522549</v>
       </c>
       <c r="AM3">
-        <v>1.822784167601E-09</v>
+        <v>1.835578824146944E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799595</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835667</v>
+        <v>179.999999983541</v>
       </c>
       <c r="AP3">
-        <v>1.357947435373903E-09</v>
+        <v>1.370785028637627E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844857</v>
+        <v>-179.9999999845114</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871632</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148077768464141E-10</v>
+        <v>8.148125137981176E-10</v>
       </c>
       <c r="O4">
-        <v>2.037054971608368E-10</v>
+        <v>2.037047076683694E-10</v>
       </c>
       <c r="P4">
-        <v>2.037062868556781E-10</v>
+        <v>2.037047078722281E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706578E-10</v>
+        <v>-8.148188297223611E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037039180986806E-10</v>
+        <v>-2.037015496223554E-10</v>
       </c>
       <c r="S4">
-        <v>-2.03701549825803E-10</v>
+        <v>-2.036999708423551E-10</v>
       </c>
       <c r="T4">
-        <v>6.315961350451788E-15</v>
+        <v>9.473929247673606E-15</v>
       </c>
       <c r="U4">
-        <v>-1.058471827984216E-09</v>
+        <v>-1.058476564935533E-09</v>
       </c>
       <c r="V4">
-        <v>1.058471829400224E-09</v>
+        <v>1.058471829399788E-09</v>
       </c>
       <c r="W4">
-        <v>-9.473922455439968E-15</v>
+        <v>-9.473922638120662E-15</v>
       </c>
       <c r="X4">
-        <v>1.058476564982056E-09</v>
+        <v>1.058478143965662E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.05846551341852E-09</v>
+        <v>-1.058471829353517E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,40 +12542,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001117</v>
+        <v>0.6666666667002195</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291301</v>
+        <v>0.333333333129022</v>
       </c>
       <c r="AI4">
-        <v>0.3333333335709908</v>
+        <v>0.333333333570882</v>
       </c>
       <c r="AJ4">
-        <v>0.66666666669096</v>
+        <v>0.6666666666910674</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386051</v>
+        <v>0.3333333331384972</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523634</v>
+        <v>0.3333333335522549</v>
       </c>
       <c r="AM4">
-        <v>1.822727882866737E-09</v>
+        <v>1.835555374921828E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799595</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835411</v>
       </c>
       <c r="AP4">
-        <v>1.357947435373903E-09</v>
+        <v>1.370785028637627E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844857</v>
+        <v>-179.9999999845114</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871632</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94166631322703E-09</v>
+        <v>-1.941670118633933E-09</v>
       </c>
       <c r="O2">
-        <v>-1.53834530970696E-09</v>
+        <v>-1.538341211164793E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506371827935844E-09</v>
+        <v>-2.506371233130466E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941664498371084E-09</v>
+        <v>1.941669757670764E-09</v>
       </c>
       <c r="R2">
-        <v>1.5383465874437E-09</v>
+        <v>1.538348589411795E-09</v>
       </c>
       <c r="S2">
-        <v>2.506369135828698E-09</v>
+        <v>2.506376305186183E-09</v>
       </c>
       <c r="T2">
-        <v>5.588879116392228E-10</v>
+        <v>5.588717579765383E-10</v>
       </c>
       <c r="U2">
-        <v>3.623709281040661E-09</v>
+        <v>3.623706726292319E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292816370063197E-10</v>
+        <v>-8.292823101231241E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588877912702567E-10</v>
+        <v>-5.588772026692422E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623707231555457E-09</v>
+        <v>-3.623701912911312E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292792579978266E-10</v>
+        <v>8.292819970904611E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,40 +12820,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099302</v>
+        <v>0.7679592756099949</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825752</v>
+        <v>0.5655462792824757</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706164</v>
+        <v>0.3792589156706327</v>
       </c>
       <c r="AJ2">
-        <v>0.767959275625642</v>
+        <v>0.7679592756257069</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745901</v>
+        <v>0.5655462792744906</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297778</v>
+        <v>0.3792589157297941</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611852</v>
+        <v>-3.79347152560518</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097134</v>
+        <v>-155.6266320097183</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130515</v>
+        <v>131.4656840130349</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370537</v>
+        <v>-3.793471524363874</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036332</v>
+        <v>-155.6266320036381</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149958</v>
+        <v>131.4656840149792</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472170641140803E-10</v>
+        <v>6.472183325830483E-10</v>
       </c>
       <c r="O3">
-        <v>5.127808802997184E-10</v>
+        <v>5.127825386370078E-10</v>
       </c>
       <c r="P3">
-        <v>8.354616486113404E-10</v>
+        <v>8.354631514699823E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472189993544338E-10</v>
+        <v>-6.472223234078488E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127796028854868E-10</v>
+        <v>-5.127822522373648E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354637462352776E-10</v>
+        <v>-8.354613670124888E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862986744768666E-10</v>
+        <v>-1.862932899226387E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207905457426544E-09</v>
+        <v>-1.207909117732532E-09</v>
       </c>
       <c r="V3">
-        <v>2.764258817368602E-10</v>
+        <v>2.764296071945248E-10</v>
       </c>
       <c r="W3">
-        <v>1.862969799108258E-10</v>
+        <v>1.862880858793746E-10</v>
       </c>
       <c r="X3">
-        <v>1.207907506721161E-09</v>
+        <v>1.207916600214519E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.76428934053436E-10</v>
+        <v>-2.764316265231845E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308793</v>
+        <v>0.767959275630944</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719285</v>
+        <v>0.5655462792718291</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494983</v>
+        <v>0.3792589157495145</v>
       </c>
       <c r="AJ3">
-        <v>0.767959275625642</v>
+        <v>0.7679592756257069</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745901</v>
+        <v>0.5655462792744906</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297778</v>
+        <v>0.3792589157297941</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956754</v>
+        <v>-3.793471523950123</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016065</v>
+        <v>-155.6266320016114</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156438</v>
+        <v>131.4656840156273</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370537</v>
+        <v>-3.793471524363874</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036332</v>
+        <v>-155.6266320036381</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149958</v>
+        <v>131.4656840149792</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472170641140802E-10</v>
+        <v>6.472150637824935E-10</v>
       </c>
       <c r="O4">
-        <v>5.127901829412138E-10</v>
+        <v>5.12782538637008E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599291E-10</v>
+        <v>8.354586745828243E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472189993544338E-10</v>
+        <v>-6.472190546072941E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127889055269805E-10</v>
+        <v>-5.127822522373648E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354571716838677E-10</v>
+        <v>-8.354562953196053E-10</v>
       </c>
       <c r="T4">
-        <v>-1.86298674476867E-10</v>
+        <v>-1.862876045226348E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207913007126321E-09</v>
+        <v>-1.207909117732532E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260402E-10</v>
+        <v>2.764292473241037E-10</v>
       </c>
       <c r="W4">
-        <v>1.862969799108258E-10</v>
+        <v>1.862824004793706E-10</v>
       </c>
       <c r="X4">
-        <v>1.207915056420938E-09</v>
+        <v>1.207916600214519E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764255218426159E-10</v>
+        <v>-2.764319397702585E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308792</v>
+        <v>0.767959275630944</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719288</v>
+        <v>0.565546279271829</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494979</v>
+        <v>0.3792589157495143</v>
       </c>
       <c r="AJ4">
-        <v>0.767959275625642</v>
+        <v>0.7679592756257069</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745901</v>
+        <v>0.5655462792744906</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297778</v>
+        <v>0.3792589157297941</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956795</v>
+        <v>-3.793471523950137</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016065</v>
+        <v>-155.6266320016113</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156439</v>
+        <v>131.4656840156273</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370537</v>
+        <v>-3.793471524363874</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036332</v>
+        <v>-155.6266320036381</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149958</v>
+        <v>131.4656840149792</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94166631322703E-09</v>
+        <v>-1.941670118633933E-09</v>
       </c>
       <c r="O2">
-        <v>-1.53834530970696E-09</v>
+        <v>-1.538341211164793E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506371827935844E-09</v>
+        <v>-2.506371233130466E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941664498371084E-09</v>
+        <v>1.941669757670764E-09</v>
       </c>
       <c r="R2">
-        <v>1.5383465874437E-09</v>
+        <v>1.538348589411795E-09</v>
       </c>
       <c r="S2">
-        <v>2.506369135828698E-09</v>
+        <v>2.506376305186183E-09</v>
       </c>
       <c r="T2">
-        <v>5.588879116392228E-10</v>
+        <v>5.588717579765383E-10</v>
       </c>
       <c r="U2">
-        <v>3.623709281040661E-09</v>
+        <v>3.623706726292319E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292816370063197E-10</v>
+        <v>-8.292823101231241E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588877912702567E-10</v>
+        <v>-5.588772026692422E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623707231555457E-09</v>
+        <v>-3.623701912911312E-09</v>
       </c>
       <c r="Y2">
-        <v>8.292792579978266E-10</v>
+        <v>8.292819970904611E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,40 +13360,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099302</v>
+        <v>0.7679592756099949</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825752</v>
+        <v>0.5655462792824757</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706164</v>
+        <v>0.3792589156706327</v>
       </c>
       <c r="AJ2">
-        <v>0.767959275625642</v>
+        <v>0.7679592756257069</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745901</v>
+        <v>0.5655462792744906</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297778</v>
+        <v>0.3792589157297941</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611852</v>
+        <v>-3.79347152560518</v>
       </c>
       <c r="AN2">
-        <v>-155.6266320097134</v>
+        <v>-155.6266320097183</v>
       </c>
       <c r="AO2">
-        <v>131.4656840130515</v>
+        <v>131.4656840130349</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370537</v>
+        <v>-3.793471524363874</v>
       </c>
       <c r="AQ2">
-        <v>-155.6266320036332</v>
+        <v>-155.6266320036381</v>
       </c>
       <c r="AR2">
-        <v>131.4656840149958</v>
+        <v>131.4656840149792</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472170641140803E-10</v>
+        <v>6.472183325830483E-10</v>
       </c>
       <c r="O3">
-        <v>5.127808802997184E-10</v>
+        <v>5.127825386370078E-10</v>
       </c>
       <c r="P3">
-        <v>8.354616486113404E-10</v>
+        <v>8.354631514699823E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.472189993544338E-10</v>
+        <v>-6.472223234078488E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127796028854868E-10</v>
+        <v>-5.127822522373648E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354637462352776E-10</v>
+        <v>-8.354613670124888E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862986744768666E-10</v>
+        <v>-1.862932899226387E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207905457426544E-09</v>
+        <v>-1.207909117732532E-09</v>
       </c>
       <c r="V3">
-        <v>2.764258817368602E-10</v>
+        <v>2.764296071945248E-10</v>
       </c>
       <c r="W3">
-        <v>1.862969799108258E-10</v>
+        <v>1.862880858793746E-10</v>
       </c>
       <c r="X3">
-        <v>1.207907506721161E-09</v>
+        <v>1.207916600214519E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.76428934053436E-10</v>
+        <v>-2.764316265231845E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308793</v>
+        <v>0.767959275630944</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719285</v>
+        <v>0.5655462792718291</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494983</v>
+        <v>0.3792589157495145</v>
       </c>
       <c r="AJ3">
-        <v>0.767959275625642</v>
+        <v>0.7679592756257069</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745901</v>
+        <v>0.5655462792744906</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297778</v>
+        <v>0.3792589157297941</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956754</v>
+        <v>-3.793471523950123</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016065</v>
+        <v>-155.6266320016114</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156438</v>
+        <v>131.4656840156273</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370537</v>
+        <v>-3.793471524363874</v>
       </c>
       <c r="AQ3">
-        <v>-155.6266320036332</v>
+        <v>-155.6266320036381</v>
       </c>
       <c r="AR3">
-        <v>131.4656840149958</v>
+        <v>131.4656840149792</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472170641140802E-10</v>
+        <v>6.472150637824935E-10</v>
       </c>
       <c r="O4">
-        <v>5.127901829412138E-10</v>
+        <v>5.12782538637008E-10</v>
       </c>
       <c r="P4">
-        <v>8.354550740599291E-10</v>
+        <v>8.354586745828243E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472189993544338E-10</v>
+        <v>-6.472190546072941E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127889055269805E-10</v>
+        <v>-5.127822522373648E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354571716838677E-10</v>
+        <v>-8.354562953196053E-10</v>
       </c>
       <c r="T4">
-        <v>-1.86298674476867E-10</v>
+        <v>-1.862876045226348E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207913007126321E-09</v>
+        <v>-1.207909117732532E-09</v>
       </c>
       <c r="V4">
-        <v>2.764224695260402E-10</v>
+        <v>2.764292473241037E-10</v>
       </c>
       <c r="W4">
-        <v>1.862969799108258E-10</v>
+        <v>1.862824004793706E-10</v>
       </c>
       <c r="X4">
-        <v>1.207915056420938E-09</v>
+        <v>1.207916600214519E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.764255218426159E-10</v>
+        <v>-2.764319397702585E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308792</v>
+        <v>0.767959275630944</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719288</v>
+        <v>0.565546279271829</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494979</v>
+        <v>0.3792589157495143</v>
       </c>
       <c r="AJ4">
-        <v>0.767959275625642</v>
+        <v>0.7679592756257069</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745901</v>
+        <v>0.5655462792744906</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297778</v>
+        <v>0.3792589157297941</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956795</v>
+        <v>-3.793471523950137</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016065</v>
+        <v>-155.6266320016113</v>
       </c>
       <c r="AO4">
-        <v>131.4656840156439</v>
+        <v>131.4656840156273</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370537</v>
+        <v>-3.793471524363874</v>
       </c>
       <c r="AQ4">
-        <v>-155.6266320036332</v>
+        <v>-155.6266320036381</v>
       </c>
       <c r="AR4">
-        <v>131.4656840149958</v>
+        <v>131.4656840149792</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844162E-14</v>
+        <v>-5.210646841683983E-15</v>
       </c>
       <c r="O2">
-        <v>1.302657325720473E-14</v>
+        <v>2.344786519415035E-14</v>
       </c>
       <c r="P2">
-        <v>-5.210691387526131E-15</v>
+        <v>-2.084263016966454E-14</v>
       </c>
       <c r="Q2">
-        <v>1.042129368337651E-14</v>
+        <v>-2.17493615579809E-27</v>
       </c>
       <c r="R2">
-        <v>5.211118928844951E-15</v>
+        <v>-1.563146668914702E-14</v>
       </c>
       <c r="S2">
-        <v>-5.210174052366778E-15</v>
+        <v>1.563241157498491E-14</v>
       </c>
       <c r="T2">
-        <v>-2.08425873667538E-14</v>
+        <v>2.605323420843881E-14</v>
       </c>
       <c r="U2">
-        <v>5.763381835279514E-09</v>
+        <v>5.763371413987498E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763397471383003E-09</v>
+        <v>-5.763397471384665E-09</v>
       </c>
       <c r="W2">
-        <v>2.084258736675362E-14</v>
+        <v>-1.563194052506285E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763384440117033E-09</v>
+        <v>-5.763387045442121E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763392261222052E-09</v>
+        <v>5.763376629283187E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057473</v>
+        <v>0.5500000117059061</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030187</v>
+        <v>0.5500000121031774</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593778</v>
+        <v>0.5500000116595369</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121495467</v>
       </c>
       <c r="AL2">
-        <v>6.687157978068125E-13</v>
+        <v>-7.989182695631872E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995568</v>
+        <v>-179.9999999995395</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.9999999995673</v>
       </c>
       <c r="AO2">
-        <v>6.685543794859453E-13</v>
+        <v>-7.971797374602162E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952995</v>
+        <v>-179.9999999952822</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999953099</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-5.210646841688497E-15</v>
+        <v>1.042129368337523E-14</v>
       </c>
       <c r="O3">
-        <v>2.605528366046618E-15</v>
+        <v>-7.815764734917911E-15</v>
       </c>
       <c r="P3">
-        <v>5.21085202426549E-15</v>
+        <v>1.042149828634168E-14</v>
       </c>
       <c r="Q3">
-        <v>-5.210646841688194E-15</v>
+        <v>-1.563194052506067E-14</v>
       </c>
       <c r="R3">
-        <v>1.563178315465787E-14</v>
+        <v>1.563178257597656E-14</v>
       </c>
       <c r="S3">
-        <v>-5.210804441508735E-15</v>
+        <v>-1.563209754748601E-14</v>
       </c>
       <c r="T3">
-        <v>1.042129368337669E-14</v>
+        <v>-1.447278865300304E-27</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921123804446546E-09</v>
       </c>
       <c r="V3">
-        <v>1.921129016912391E-09</v>
+        <v>1.921129016912946E-09</v>
       </c>
       <c r="W3">
-        <v>-1.563194052506519E-14</v>
+        <v>1.563194052506502E-14</v>
       </c>
       <c r="X3">
-        <v>1.921131620470239E-09</v>
+        <v>1.921118593853696E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505246E-09</v>
+        <v>-1.921139438152645E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439214</v>
+        <v>0.5500000116440805</v>
       </c>
       <c r="AH3">
-        <v>0.550000012164844</v>
+        <v>0.550000012165003</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593778</v>
+        <v>0.5500000116595369</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121495467</v>
       </c>
       <c r="AL3">
-        <v>6.672567148242547E-13</v>
+        <v>-7.957070713060438E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938631</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938734</v>
+        <v>179.9999999938908</v>
       </c>
       <c r="AO3">
-        <v>6.685543794859453E-13</v>
+        <v>-7.971797374602162E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952995</v>
+        <v>-179.9999999952822</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999953099</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841688437E-15</v>
+        <v>-1.042129368337523E-14</v>
       </c>
       <c r="O4">
-        <v>2.605528366046619E-15</v>
+        <v>-7.815764734530121E-15</v>
       </c>
       <c r="P4">
-        <v>-5.210441665159434E-15</v>
+        <v>2.084279197277117E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688315E-15</v>
+        <v>1.042129368337741E-14</v>
       </c>
       <c r="R4">
-        <v>1.563178315465787E-14</v>
+        <v>1.563178257597656E-14</v>
       </c>
       <c r="S4">
-        <v>-5.21080444065384E-15</v>
+        <v>-2.605339123465634E-14</v>
       </c>
       <c r="T4">
-        <v>5.210646841688315E-15</v>
+        <v>1.449011636691119E-27</v>
       </c>
       <c r="U4">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921123804446547E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618704E-09</v>
+        <v>1.921118595619258E-09</v>
       </c>
       <c r="W4">
-        <v>-5.210646841688437E-15</v>
+        <v>1.56319405250614E-14</v>
       </c>
       <c r="X4">
-        <v>1.921131620470239E-09</v>
+        <v>1.921118593853696E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921123806211558E-09</v>
+        <v>-1.921129016858957E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439215</v>
+        <v>0.5500000116440809</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648441</v>
+        <v>0.5500000121650034</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808767</v>
+        <v>1.100000023808606</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593778</v>
+        <v>0.5500000116595369</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493875</v>
+        <v>0.5500000121495467</v>
       </c>
       <c r="AL4">
-        <v>6.698909380950145E-13</v>
+        <v>-7.966597408168662E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938631</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938734</v>
+        <v>179.9999999938908</v>
       </c>
       <c r="AO4">
-        <v>6.685543794859453E-13</v>
+        <v>-7.971797374602162E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952995</v>
+        <v>-179.9999999952822</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999953099</v>
       </c>
     </row>
   </sheetData>
